--- a/thresholds/AL/computer-science/computer-science-thresholds.xlsx
+++ b/thresholds/AL/computer-science/computer-science-thresholds.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I91"/>
+  <dimension ref="A1:J68"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -479,6 +479,11 @@
           <t>date</t>
         </is>
       </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>subject</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -512,6 +517,11 @@
           <t>June 2023</t>
         </is>
       </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>computer-science</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -545,6 +555,11 @@
           <t>June 2023</t>
         </is>
       </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>computer-science</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -578,6 +593,11 @@
           <t>June 2023</t>
         </is>
       </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>computer-science</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -611,6 +631,11 @@
           <t>June 2023</t>
         </is>
       </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>computer-science</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -644,6 +669,11 @@
           <t>June 2023</t>
         </is>
       </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>computer-science</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -677,6 +707,11 @@
           <t>June 2023</t>
         </is>
       </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>computer-science</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -710,6 +745,11 @@
           <t>June 2023</t>
         </is>
       </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>computer-science</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -743,6 +783,11 @@
           <t>June 2023</t>
         </is>
       </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>computer-science</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -776,1146 +821,1321 @@
           <t>June 2023</t>
         </is>
       </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>computer-science</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>P1 50</t>
+          <t>P3 60,80</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>75</v>
+        <v>150</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="D11" t="n">
-        <v>58</v>
+        <v>114</v>
       </c>
       <c r="E11" t="n">
-        <v>46</v>
+        <v>98</v>
       </c>
       <c r="F11" t="n">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="G11" t="n">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="H11" t="n">
-        <v>26</v>
+        <v>48</v>
       </c>
       <c r="I11" t="inlineStr">
         <is>
           <t>June 2023</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>computer-science</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>P3 60,80</t>
+          <t>WF 33,43,96</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>150</v>
+        <v>300</v>
       </c>
       <c r="C12" t="n">
-        <v>130</v>
+        <v>230</v>
       </c>
       <c r="D12" t="n">
-        <v>114</v>
+        <v>201</v>
       </c>
       <c r="E12" t="n">
-        <v>98</v>
+        <v>172</v>
       </c>
       <c r="F12" t="n">
-        <v>81</v>
+        <v>140</v>
       </c>
       <c r="G12" t="n">
-        <v>64</v>
+        <v>108</v>
       </c>
       <c r="H12" t="n">
-        <v>48</v>
+        <v>77</v>
       </c>
       <c r="I12" t="inlineStr">
         <is>
           <t>June 2023</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>computer-science</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>SX 11,21</t>
+          <t>AX 11,21,31,41</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>150</v>
+        <v>300</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>222</v>
       </c>
       <c r="D13" t="n">
-        <v>85</v>
+        <v>191</v>
       </c>
       <c r="E13" t="n">
-        <v>70</v>
+        <v>160</v>
       </c>
       <c r="F13" t="n">
-        <v>58</v>
+        <v>130</v>
       </c>
       <c r="G13" t="n">
-        <v>46</v>
+        <v>100</v>
       </c>
       <c r="H13" t="n">
-        <v>34</v>
+        <v>71</v>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>June 2023</t>
+          <t>June 2024</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>computer-science</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>SY 12,22</t>
+          <t>AY 12,22,32,42</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>150</v>
+        <v>300</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>222</v>
       </c>
       <c r="D14" t="n">
-        <v>85</v>
+        <v>191</v>
       </c>
       <c r="E14" t="n">
-        <v>70</v>
+        <v>160</v>
       </c>
       <c r="F14" t="n">
-        <v>58</v>
+        <v>130</v>
       </c>
       <c r="G14" t="n">
-        <v>46</v>
+        <v>100</v>
       </c>
       <c r="H14" t="n">
-        <v>34</v>
+        <v>71</v>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>June 2023</t>
+          <t>June 2024</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>computer-science</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>SZ 13,23</t>
+          <t>AZ 13,23,33,43</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>150</v>
+        <v>300</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>222</v>
       </c>
       <c r="D15" t="n">
-        <v>85</v>
+        <v>191</v>
       </c>
       <c r="E15" t="n">
-        <v>70</v>
+        <v>160</v>
       </c>
       <c r="F15" t="n">
-        <v>58</v>
+        <v>130</v>
       </c>
       <c r="G15" t="n">
-        <v>46</v>
+        <v>100</v>
       </c>
       <c r="H15" t="n">
-        <v>34</v>
+        <v>71</v>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>June 2023</t>
+          <t>June 2024</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>computer-science</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>WF 33,43,96</t>
+          <t>BX 31,41,87</t>
         </is>
       </c>
       <c r="B16" t="n">
         <v>300</v>
       </c>
       <c r="C16" t="n">
-        <v>230</v>
+        <v>214</v>
       </c>
       <c r="D16" t="n">
-        <v>201</v>
+        <v>182</v>
       </c>
       <c r="E16" t="n">
-        <v>172</v>
+        <v>150</v>
       </c>
       <c r="F16" t="n">
-        <v>140</v>
+        <v>121</v>
       </c>
       <c r="G16" t="n">
-        <v>108</v>
+        <v>92</v>
       </c>
       <c r="H16" t="n">
-        <v>77</v>
+        <v>64</v>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>June 2023</t>
+          <t>June 2024</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>computer-science</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>AX 11,21,31,41</t>
+          <t>BY 32,42,88</t>
         </is>
       </c>
       <c r="B17" t="n">
         <v>300</v>
       </c>
       <c r="C17" t="n">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="D17" t="n">
-        <v>191</v>
+        <v>182</v>
       </c>
       <c r="E17" t="n">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="F17" t="n">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="G17" t="n">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="H17" t="n">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="I17" t="inlineStr">
         <is>
           <t>June 2024</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>computer-science</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>AY 12,22,32,42</t>
+          <t>BZ 33,43,89</t>
         </is>
       </c>
       <c r="B18" t="n">
         <v>300</v>
       </c>
       <c r="C18" t="n">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="D18" t="n">
-        <v>191</v>
+        <v>182</v>
       </c>
       <c r="E18" t="n">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="F18" t="n">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="G18" t="n">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="H18" t="n">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="I18" t="inlineStr">
         <is>
           <t>June 2024</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>computer-science</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>AZ 13,23,33,43</t>
+          <t>CT 32,42,97</t>
         </is>
       </c>
       <c r="B19" t="n">
         <v>300</v>
       </c>
       <c r="C19" t="n">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="D19" t="n">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="E19" t="n">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="F19" t="n">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="G19" t="n">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="H19" t="n">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="I19" t="inlineStr">
         <is>
           <t>June 2024</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>computer-science</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>BX 31,41,87</t>
+          <t>CU 33,43,98</t>
         </is>
       </c>
       <c r="B20" t="n">
         <v>300</v>
       </c>
       <c r="C20" t="n">
-        <v>214</v>
+        <v>222</v>
       </c>
       <c r="D20" t="n">
-        <v>182</v>
+        <v>190</v>
       </c>
       <c r="E20" t="n">
-        <v>150</v>
+        <v>158</v>
       </c>
       <c r="F20" t="n">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="G20" t="n">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="H20" t="n">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="I20" t="inlineStr">
         <is>
           <t>June 2024</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>computer-science</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>BY 32,42,88</t>
+          <t>CY 32,42,98</t>
         </is>
       </c>
       <c r="B21" t="n">
         <v>300</v>
       </c>
       <c r="C21" t="n">
-        <v>214</v>
+        <v>222</v>
       </c>
       <c r="D21" t="n">
-        <v>182</v>
+        <v>190</v>
       </c>
       <c r="E21" t="n">
-        <v>150</v>
+        <v>158</v>
       </c>
       <c r="F21" t="n">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="G21" t="n">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="H21" t="n">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="I21" t="inlineStr">
         <is>
           <t>June 2024</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>computer-science</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>BZ 33,43,89</t>
+          <t>AX 11,21,31,41</t>
         </is>
       </c>
       <c r="B22" t="n">
         <v>300</v>
       </c>
       <c r="C22" t="n">
-        <v>214</v>
+        <v>228</v>
       </c>
       <c r="D22" t="n">
-        <v>182</v>
+        <v>195</v>
       </c>
       <c r="E22" t="n">
-        <v>150</v>
+        <v>162</v>
       </c>
       <c r="F22" t="n">
-        <v>121</v>
+        <v>132</v>
       </c>
       <c r="G22" t="n">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="H22" t="n">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>June 2024</t>
+          <t>June 2025</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>computer-science</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>CT 32,42,97</t>
+          <t>AY 12,22,32,42</t>
         </is>
       </c>
       <c r="B23" t="n">
         <v>300</v>
       </c>
       <c r="C23" t="n">
-        <v>218</v>
+        <v>228</v>
       </c>
       <c r="D23" t="n">
-        <v>187</v>
+        <v>197</v>
       </c>
       <c r="E23" t="n">
-        <v>156</v>
+        <v>166</v>
       </c>
       <c r="F23" t="n">
-        <v>125</v>
+        <v>135</v>
       </c>
       <c r="G23" t="n">
-        <v>95</v>
+        <v>104</v>
       </c>
       <c r="H23" t="n">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>June 2024</t>
+          <t>June 2025</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>computer-science</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>CU 33,43,98</t>
+          <t>AZ 13,23,33,43</t>
         </is>
       </c>
       <c r="B24" t="n">
         <v>300</v>
       </c>
       <c r="C24" t="n">
-        <v>222</v>
+        <v>240</v>
       </c>
       <c r="D24" t="n">
-        <v>190</v>
+        <v>211</v>
       </c>
       <c r="E24" t="n">
-        <v>158</v>
+        <v>182</v>
       </c>
       <c r="F24" t="n">
-        <v>127</v>
+        <v>152</v>
       </c>
       <c r="G24" t="n">
-        <v>96</v>
+        <v>122</v>
       </c>
       <c r="H24" t="n">
-        <v>66</v>
+        <v>92</v>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>June 2024</t>
+          <t>June 2025</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>computer-science</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>CY 32,42,98</t>
+          <t>BX 31,41,87</t>
         </is>
       </c>
       <c r="B25" t="n">
         <v>300</v>
       </c>
       <c r="C25" t="n">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="D25" t="n">
         <v>190</v>
       </c>
       <c r="E25" t="n">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="F25" t="n">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="G25" t="n">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="H25" t="n">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>June 2024</t>
+          <t>June 2025</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>computer-science</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>SX 11,21</t>
+          <t>BY 32,42,88</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>150</v>
+        <v>300</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>224</v>
       </c>
       <c r="D26" t="n">
-        <v>94</v>
+        <v>191</v>
       </c>
       <c r="E26" t="n">
-        <v>80</v>
+        <v>158</v>
       </c>
       <c r="F26" t="n">
-        <v>67</v>
+        <v>129</v>
       </c>
       <c r="G26" t="n">
-        <v>54</v>
+        <v>101</v>
       </c>
       <c r="H26" t="n">
-        <v>41</v>
+        <v>73</v>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>June 2024</t>
+          <t>June 2025</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>computer-science</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>SY 12,22</t>
+          <t>BZ 33,43,89</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>150</v>
+        <v>300</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>224</v>
       </c>
       <c r="D27" t="n">
-        <v>94</v>
+        <v>190</v>
       </c>
       <c r="E27" t="n">
-        <v>80</v>
+        <v>156</v>
       </c>
       <c r="F27" t="n">
-        <v>67</v>
+        <v>128</v>
       </c>
       <c r="G27" t="n">
-        <v>54</v>
+        <v>100</v>
       </c>
       <c r="H27" t="n">
-        <v>41</v>
+        <v>73</v>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>June 2024</t>
+          <t>June 2025</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>computer-science</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>SZ 13,23</t>
+          <t>CS 31,41,99</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>150</v>
+        <v>300</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>225</v>
       </c>
       <c r="D28" t="n">
-        <v>94</v>
+        <v>189</v>
       </c>
       <c r="E28" t="n">
-        <v>80</v>
+        <v>153</v>
       </c>
       <c r="F28" t="n">
+        <v>124</v>
+      </c>
+      <c r="G28" t="n">
+        <v>95</v>
+      </c>
+      <c r="H28" t="n">
         <v>67</v>
       </c>
-      <c r="G28" t="n">
-        <v>54</v>
-      </c>
-      <c r="H28" t="n">
-        <v>41</v>
-      </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>June 2024</t>
+          <t>June 2025</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>computer-science</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>AX 11,21,31,41</t>
+          <t>CT 32,42,97</t>
         </is>
       </c>
       <c r="B29" t="n">
         <v>300</v>
       </c>
       <c r="C29" t="n">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="D29" t="n">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="E29" t="n">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="F29" t="n">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="G29" t="n">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="H29" t="n">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="I29" t="inlineStr">
         <is>
           <t>June 2025</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>computer-science</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>AY 12,22,32,42</t>
+          <t>CU 33,43,98</t>
         </is>
       </c>
       <c r="B30" t="n">
         <v>300</v>
       </c>
       <c r="C30" t="n">
-        <v>228</v>
+        <v>217</v>
       </c>
       <c r="D30" t="n">
-        <v>197</v>
+        <v>182</v>
       </c>
       <c r="E30" t="n">
-        <v>166</v>
+        <v>147</v>
       </c>
       <c r="F30" t="n">
-        <v>135</v>
+        <v>118</v>
       </c>
       <c r="G30" t="n">
-        <v>104</v>
+        <v>89</v>
       </c>
       <c r="H30" t="n">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="I30" t="inlineStr">
         <is>
           <t>June 2025</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>computer-science</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>AZ 13,23,33,43</t>
+          <t>CX 31,41,97</t>
         </is>
       </c>
       <c r="B31" t="n">
         <v>300</v>
       </c>
       <c r="C31" t="n">
-        <v>240</v>
+        <v>223</v>
       </c>
       <c r="D31" t="n">
-        <v>211</v>
+        <v>188</v>
       </c>
       <c r="E31" t="n">
-        <v>182</v>
+        <v>153</v>
       </c>
       <c r="F31" t="n">
-        <v>152</v>
+        <v>123</v>
       </c>
       <c r="G31" t="n">
-        <v>122</v>
+        <v>93</v>
       </c>
       <c r="H31" t="n">
-        <v>92</v>
+        <v>63</v>
       </c>
       <c r="I31" t="inlineStr">
         <is>
           <t>June 2025</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>computer-science</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>BX 31,41,87</t>
+          <t>CY 32,42,98</t>
         </is>
       </c>
       <c r="B32" t="n">
         <v>300</v>
       </c>
       <c r="C32" t="n">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="D32" t="n">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="E32" t="n">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="F32" t="n">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="G32" t="n">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="H32" t="n">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="I32" t="inlineStr">
         <is>
           <t>June 2025</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>computer-science</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>BY 32,42,88</t>
+          <t>P2 50,60</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="C33" t="n">
-        <v>224</v>
+        <v>126</v>
       </c>
       <c r="D33" t="n">
-        <v>191</v>
+        <v>108</v>
       </c>
       <c r="E33" t="n">
-        <v>158</v>
+        <v>90</v>
       </c>
       <c r="F33" t="n">
-        <v>129</v>
+        <v>72</v>
       </c>
       <c r="G33" t="n">
-        <v>101</v>
+        <v>54</v>
       </c>
       <c r="H33" t="n">
-        <v>73</v>
+        <v>36</v>
       </c>
       <c r="I33" t="inlineStr">
         <is>
           <t>June 2025</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>computer-science</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>BZ 33,43,89</t>
+          <t>AX 11,21,31,41</t>
         </is>
       </c>
       <c r="B34" t="n">
         <v>300</v>
       </c>
       <c r="C34" t="n">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="D34" t="n">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="E34" t="n">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="F34" t="n">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="G34" t="n">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="H34" t="n">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>June 2025</t>
+          <t>November 2023</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>computer-science</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>CS 31,41,99</t>
+          <t>AY 12,22,32,42</t>
         </is>
       </c>
       <c r="B35" t="n">
         <v>300</v>
       </c>
       <c r="C35" t="n">
-        <v>225</v>
+        <v>232</v>
       </c>
       <c r="D35" t="n">
-        <v>189</v>
+        <v>198</v>
       </c>
       <c r="E35" t="n">
-        <v>153</v>
+        <v>164</v>
       </c>
       <c r="F35" t="n">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="G35" t="n">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="H35" t="n">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>June 2025</t>
+          <t>November 2023</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>computer-science</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>CT 32,42,97</t>
+          <t>AZ 13,23,33,43</t>
         </is>
       </c>
       <c r="B36" t="n">
         <v>300</v>
       </c>
       <c r="C36" t="n">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="D36" t="n">
-        <v>189</v>
+        <v>196</v>
       </c>
       <c r="E36" t="n">
-        <v>155</v>
+        <v>163</v>
       </c>
       <c r="F36" t="n">
-        <v>124</v>
+        <v>133</v>
       </c>
       <c r="G36" t="n">
-        <v>93</v>
+        <v>104</v>
       </c>
       <c r="H36" t="n">
-        <v>63</v>
+        <v>75</v>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>June 2025</t>
+          <t>November 2023</t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>computer-science</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>CU 33,43,98</t>
+          <t>BQ 31,41,88</t>
         </is>
       </c>
       <c r="B37" t="n">
         <v>300</v>
       </c>
       <c r="C37" t="n">
-        <v>217</v>
+        <v>225</v>
       </c>
       <c r="D37" t="n">
-        <v>182</v>
+        <v>191</v>
       </c>
       <c r="E37" t="n">
-        <v>147</v>
+        <v>157</v>
       </c>
       <c r="F37" t="n">
-        <v>118</v>
+        <v>129</v>
       </c>
       <c r="G37" t="n">
-        <v>89</v>
+        <v>101</v>
       </c>
       <c r="H37" t="n">
-        <v>60</v>
+        <v>74</v>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>June 2025</t>
+          <t>November 2023</t>
+        </is>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>computer-science</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>CX 31,41,97</t>
+          <t>BR 32,42,89</t>
         </is>
       </c>
       <c r="B38" t="n">
         <v>300</v>
       </c>
       <c r="C38" t="n">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="D38" t="n">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="E38" t="n">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="F38" t="n">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="G38" t="n">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="H38" t="n">
-        <v>63</v>
+        <v>74</v>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>June 2025</t>
+          <t>November 2023</t>
+        </is>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>computer-science</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>CY 32,42,98</t>
+          <t>BY 32,42,88</t>
         </is>
       </c>
       <c r="B39" t="n">
         <v>300</v>
       </c>
       <c r="C39" t="n">
-        <v>217</v>
+        <v>224</v>
       </c>
       <c r="D39" t="n">
-        <v>183</v>
+        <v>190</v>
       </c>
       <c r="E39" t="n">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="F39" t="n">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="G39" t="n">
-        <v>89</v>
+        <v>101</v>
       </c>
       <c r="H39" t="n">
-        <v>60</v>
+        <v>74</v>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>June 2025</t>
+          <t>November 2023</t>
+        </is>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>computer-science</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>P2 50,60</t>
+          <t>BZ 33,43,89</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>150</v>
+        <v>300</v>
       </c>
       <c r="C40" t="n">
-        <v>126</v>
+        <v>225</v>
       </c>
       <c r="D40" t="n">
-        <v>108</v>
+        <v>191</v>
       </c>
       <c r="E40" t="n">
-        <v>90</v>
+        <v>157</v>
       </c>
       <c r="F40" t="n">
-        <v>72</v>
+        <v>129</v>
       </c>
       <c r="G40" t="n">
-        <v>54</v>
+        <v>101</v>
       </c>
       <c r="H40" t="n">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>June 2025</t>
+          <t>November 2023</t>
+        </is>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>computer-science</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>SX 11,21</t>
+          <t>CX 31,41,97</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>150</v>
+        <v>300</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>223</v>
       </c>
       <c r="D41" t="n">
-        <v>99</v>
+        <v>190</v>
       </c>
       <c r="E41" t="n">
-        <v>86</v>
+        <v>157</v>
       </c>
       <c r="F41" t="n">
-        <v>71</v>
+        <v>129</v>
       </c>
       <c r="G41" t="n">
-        <v>56</v>
+        <v>101</v>
       </c>
       <c r="H41" t="n">
-        <v>41</v>
+        <v>73</v>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>June 2025</t>
+          <t>November 2023</t>
+        </is>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>computer-science</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>SY 12,22</t>
+          <t>CY 32,42,98</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>150</v>
+        <v>300</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>226</v>
       </c>
       <c r="D42" t="n">
-        <v>100</v>
+        <v>194</v>
       </c>
       <c r="E42" t="n">
-        <v>88</v>
+        <v>162</v>
       </c>
       <c r="F42" t="n">
-        <v>72</v>
+        <v>134</v>
       </c>
       <c r="G42" t="n">
-        <v>56</v>
+        <v>107</v>
       </c>
       <c r="H42" t="n">
-        <v>41</v>
+        <v>80</v>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>June 2025</t>
+          <t>November 2023</t>
+        </is>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>computer-science</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>SZ 13,23</t>
+          <t>CZ 33,43,99</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>150</v>
+        <v>300</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>227</v>
       </c>
       <c r="D43" t="n">
-        <v>115</v>
+        <v>195</v>
       </c>
       <c r="E43" t="n">
+        <v>163</v>
+      </c>
+      <c r="F43" t="n">
+        <v>134</v>
+      </c>
+      <c r="G43" t="n">
         <v>106</v>
       </c>
-      <c r="F43" t="n">
-        <v>90</v>
-      </c>
-      <c r="G43" t="n">
-        <v>75</v>
-      </c>
       <c r="H43" t="n">
-        <v>60</v>
+        <v>78</v>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>June 2025</t>
+          <t>November 2023</t>
+        </is>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>computer-science</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>AX 11,21,31,41</t>
+          <t>W1 32,42,96</t>
         </is>
       </c>
       <c r="B44" t="n">
         <v>300</v>
       </c>
       <c r="C44" t="n">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="D44" t="n">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="E44" t="n">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="F44" t="n">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="G44" t="n">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H44" t="n">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I44" t="inlineStr">
         <is>
           <t>November 2023</t>
+        </is>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>computer-science</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>AY 12,22,32,42</t>
+          <t>WA 12,21,32,42</t>
         </is>
       </c>
       <c r="B45" t="n">
         <v>300</v>
       </c>
       <c r="C45" t="n">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D45" t="n">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E45" t="n">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F45" t="n">
         <v>134</v>
@@ -1931,671 +2151,744 @@
           <t>November 2023</t>
         </is>
       </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>computer-science</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>AZ 13,23,33,43</t>
+          <t>AX 11,21,31,41</t>
         </is>
       </c>
       <c r="B46" t="n">
         <v>300</v>
       </c>
       <c r="C46" t="n">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D46" t="n">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="E46" t="n">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="F46" t="n">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="G46" t="n">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="H46" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>November 2023</t>
+          <t>November 2024</t>
+        </is>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>computer-science</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>BQ 31,41,88</t>
+          <t>AY 12,22,32,42</t>
         </is>
       </c>
       <c r="B47" t="n">
         <v>300</v>
       </c>
       <c r="C47" t="n">
-        <v>225</v>
+        <v>215</v>
       </c>
       <c r="D47" t="n">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="E47" t="n">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="F47" t="n">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="G47" t="n">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="H47" t="n">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>November 2023</t>
+          <t>November 2024</t>
+        </is>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>computer-science</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>BR 32,42,89</t>
+          <t>AZ 13,23,33,43</t>
         </is>
       </c>
       <c r="B48" t="n">
         <v>300</v>
       </c>
       <c r="C48" t="n">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="D48" t="n">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="E48" t="n">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="F48" t="n">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="G48" t="n">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="H48" t="n">
         <v>74</v>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>November 2023</t>
+          <t>November 2024</t>
+        </is>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>computer-science</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>BY 32,42,88</t>
+          <t>BP 33,43,87</t>
         </is>
       </c>
       <c r="B49" t="n">
         <v>300</v>
       </c>
       <c r="C49" t="n">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="D49" t="n">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="E49" t="n">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="F49" t="n">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="G49" t="n">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="H49" t="n">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>November 2023</t>
+          <t>November 2024</t>
+        </is>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>computer-science</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>BZ 33,43,89</t>
+          <t>BQ 31,41,88</t>
         </is>
       </c>
       <c r="B50" t="n">
         <v>300</v>
       </c>
       <c r="C50" t="n">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="D50" t="n">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="E50" t="n">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="F50" t="n">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="G50" t="n">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="H50" t="n">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>November 2023</t>
+          <t>November 2024</t>
+        </is>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>computer-science</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>CX 31,41,97</t>
+          <t>BR 32,42,89</t>
         </is>
       </c>
       <c r="B51" t="n">
         <v>300</v>
       </c>
       <c r="C51" t="n">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D51" t="n">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E51" t="n">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="F51" t="n">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="G51" t="n">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="H51" t="n">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>November 2023</t>
+          <t>November 2024</t>
+        </is>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>computer-science</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
         <is>
-          <t>CY 32,42,98</t>
+          <t>BY 32,42,88</t>
         </is>
       </c>
       <c r="B52" t="n">
         <v>300</v>
       </c>
       <c r="C52" t="n">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="D52" t="n">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="E52" t="n">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="F52" t="n">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G52" t="n">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H52" t="n">
         <v>80</v>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>November 2023</t>
+          <t>November 2024</t>
+        </is>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>computer-science</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
         <is>
-          <t>CZ 33,43,99</t>
+          <t>BZ 33,43,89</t>
         </is>
       </c>
       <c r="B53" t="n">
         <v>300</v>
       </c>
       <c r="C53" t="n">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="D53" t="n">
         <v>195</v>
       </c>
       <c r="E53" t="n">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="F53" t="n">
         <v>134</v>
       </c>
       <c r="G53" t="n">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="H53" t="n">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>November 2023</t>
+          <t>November 2024</t>
+        </is>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>computer-science</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
         <is>
-          <t>P1 50</t>
+          <t>CX 31,41,97</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>75</v>
+        <v>300</v>
       </c>
       <c r="C54" t="n">
-        <v>0</v>
+        <v>225</v>
       </c>
       <c r="D54" t="n">
-        <v>58</v>
+        <v>191</v>
       </c>
       <c r="E54" t="n">
-        <v>46</v>
+        <v>157</v>
       </c>
       <c r="F54" t="n">
-        <v>39</v>
+        <v>129</v>
       </c>
       <c r="G54" t="n">
-        <v>32</v>
+        <v>101</v>
       </c>
       <c r="H54" t="n">
-        <v>26</v>
+        <v>74</v>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>November 2023</t>
+          <t>November 2024</t>
+        </is>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>computer-science</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
         <is>
-          <t>SW 12,21</t>
+          <t>CY 32,42,98</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>150</v>
+        <v>300</v>
       </c>
       <c r="C55" t="n">
-        <v>0</v>
+        <v>222</v>
       </c>
       <c r="D55" t="n">
-        <v>92</v>
+        <v>190</v>
       </c>
       <c r="E55" t="n">
-        <v>77</v>
+        <v>158</v>
       </c>
       <c r="F55" t="n">
-        <v>63</v>
+        <v>130</v>
       </c>
       <c r="G55" t="n">
-        <v>49</v>
+        <v>102</v>
       </c>
       <c r="H55" t="n">
-        <v>36</v>
+        <v>75</v>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>November 2023</t>
+          <t>November 2024</t>
+        </is>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>computer-science</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
         <is>
-          <t>SX 11,21</t>
+          <t>CZ 33,43,99</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>150</v>
+        <v>300</v>
       </c>
       <c r="C56" t="n">
-        <v>0</v>
+        <v>225</v>
       </c>
       <c r="D56" t="n">
-        <v>90</v>
+        <v>191</v>
       </c>
       <c r="E56" t="n">
-        <v>76</v>
+        <v>157</v>
       </c>
       <c r="F56" t="n">
-        <v>62</v>
+        <v>129</v>
       </c>
       <c r="G56" t="n">
-        <v>48</v>
+        <v>101</v>
       </c>
       <c r="H56" t="n">
-        <v>35</v>
+        <v>74</v>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>November 2023</t>
+          <t>November 2024</t>
+        </is>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>computer-science</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="inlineStr">
         <is>
-          <t>SY 12,22</t>
+          <t>W1 32,42,96</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>150</v>
+        <v>300</v>
       </c>
       <c r="C57" t="n">
-        <v>0</v>
+        <v>221</v>
       </c>
       <c r="D57" t="n">
-        <v>93</v>
+        <v>189</v>
       </c>
       <c r="E57" t="n">
-        <v>78</v>
+        <v>157</v>
       </c>
       <c r="F57" t="n">
-        <v>64</v>
+        <v>129</v>
       </c>
       <c r="G57" t="n">
-        <v>50</v>
+        <v>102</v>
       </c>
       <c r="H57" t="n">
-        <v>36</v>
+        <v>75</v>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>November 2023</t>
+          <t>November 2024</t>
+        </is>
+      </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>computer-science</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="inlineStr">
         <is>
-          <t>SZ 13,23</t>
+          <t>AY 12,22,32,42</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>150</v>
+        <v>300</v>
       </c>
       <c r="C58" t="n">
-        <v>0</v>
+        <v>233</v>
       </c>
       <c r="D58" t="n">
-        <v>90</v>
+        <v>198</v>
       </c>
       <c r="E58" t="n">
-        <v>76</v>
+        <v>163</v>
       </c>
       <c r="F58" t="n">
-        <v>62</v>
+        <v>133</v>
       </c>
       <c r="G58" t="n">
-        <v>48</v>
+        <v>103</v>
       </c>
       <c r="H58" t="n">
-        <v>35</v>
+        <v>73</v>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>November 2023</t>
-        </is>
-      </c>
+          <t>November 2025</t>
+        </is>
+      </c>
+      <c r="J58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="inlineStr">
         <is>
-          <t>W1 32,42,96</t>
+          <t>AZ 13,23,33,43</t>
         </is>
       </c>
       <c r="B59" t="n">
         <v>300</v>
       </c>
       <c r="C59" t="n">
-        <v>223</v>
+        <v>233</v>
       </c>
       <c r="D59" t="n">
-        <v>190</v>
+        <v>198</v>
       </c>
       <c r="E59" t="n">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="F59" t="n">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="G59" t="n">
         <v>103</v>
       </c>
       <c r="H59" t="n">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>November 2023</t>
-        </is>
-      </c>
+          <t>November 2025</t>
+        </is>
+      </c>
+      <c r="J59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="inlineStr">
         <is>
-          <t>WA 12,21,32,42</t>
+          <t>BQ 31,41,88</t>
         </is>
       </c>
       <c r="B60" t="n">
         <v>300</v>
       </c>
       <c r="C60" t="n">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="D60" t="n">
-        <v>197</v>
+        <v>205</v>
       </c>
       <c r="E60" t="n">
-        <v>163</v>
+        <v>175</v>
       </c>
       <c r="F60" t="n">
-        <v>134</v>
+        <v>143</v>
       </c>
       <c r="G60" t="n">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="H60" t="n">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>November 2023</t>
-        </is>
-      </c>
+          <t>November 2025</t>
+        </is>
+      </c>
+      <c r="J60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="inlineStr">
         <is>
-          <t>AX 11,21,31,41</t>
+          <t>BR 32,42,89</t>
         </is>
       </c>
       <c r="B61" t="n">
         <v>300</v>
       </c>
       <c r="C61" t="n">
-        <v>228</v>
+        <v>245</v>
       </c>
       <c r="D61" t="n">
-        <v>193</v>
+        <v>218</v>
       </c>
       <c r="E61" t="n">
-        <v>158</v>
+        <v>191</v>
       </c>
       <c r="F61" t="n">
-        <v>128</v>
+        <v>159</v>
       </c>
       <c r="G61" t="n">
-        <v>99</v>
+        <v>127</v>
       </c>
       <c r="H61" t="n">
-        <v>70</v>
+        <v>96</v>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>November 2024</t>
-        </is>
-      </c>
+          <t>November 2025</t>
+        </is>
+      </c>
+      <c r="J61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="inlineStr">
         <is>
-          <t>AY 12,22,32,42</t>
+          <t>BX 31,41,87</t>
         </is>
       </c>
       <c r="B62" t="n">
         <v>300</v>
       </c>
       <c r="C62" t="n">
-        <v>215</v>
+        <v>235</v>
       </c>
       <c r="D62" t="n">
-        <v>183</v>
+        <v>204</v>
       </c>
       <c r="E62" t="n">
-        <v>151</v>
+        <v>173</v>
       </c>
       <c r="F62" t="n">
-        <v>123</v>
+        <v>142</v>
       </c>
       <c r="G62" t="n">
-        <v>95</v>
+        <v>111</v>
       </c>
       <c r="H62" t="n">
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>November 2024</t>
-        </is>
-      </c>
+          <t>November 2025</t>
+        </is>
+      </c>
+      <c r="J62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="inlineStr">
         <is>
-          <t>AZ 13,23,33,43</t>
+          <t>BY 32,42,88</t>
         </is>
       </c>
       <c r="B63" t="n">
         <v>300</v>
       </c>
       <c r="C63" t="n">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="D63" t="n">
-        <v>194</v>
+        <v>203</v>
       </c>
       <c r="E63" t="n">
-        <v>158</v>
+        <v>173</v>
       </c>
       <c r="F63" t="n">
-        <v>130</v>
+        <v>141</v>
       </c>
       <c r="G63" t="n">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="H63" t="n">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>November 2024</t>
-        </is>
-      </c>
+          <t>November 2025</t>
+        </is>
+      </c>
+      <c r="J63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="inlineStr">
         <is>
-          <t>BP 33,43,87</t>
+          <t>BZ 33,43,89</t>
         </is>
       </c>
       <c r="B64" t="n">
         <v>300</v>
       </c>
       <c r="C64" t="n">
-        <v>229</v>
+        <v>245</v>
       </c>
       <c r="D64" t="n">
-        <v>195</v>
+        <v>218</v>
       </c>
       <c r="E64" t="n">
-        <v>161</v>
+        <v>191</v>
       </c>
       <c r="F64" t="n">
-        <v>134</v>
+        <v>159</v>
       </c>
       <c r="G64" t="n">
-        <v>107</v>
+        <v>127</v>
       </c>
       <c r="H64" t="n">
-        <v>80</v>
+        <v>96</v>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>November 2024</t>
-        </is>
-      </c>
+          <t>November 2025</t>
+        </is>
+      </c>
+      <c r="J64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="inlineStr">
         <is>
-          <t>BQ 31,41,88</t>
+          <t>CX 31,41,97</t>
         </is>
       </c>
       <c r="B65" t="n">
         <v>300</v>
       </c>
       <c r="C65" t="n">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D65" t="n">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="E65" t="n">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="F65" t="n">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="G65" t="n">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="H65" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>November 2024</t>
-        </is>
-      </c>
+          <t>November 2025</t>
+        </is>
+      </c>
+      <c r="J65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="inlineStr">
         <is>
-          <t>BR 32,42,89</t>
+          <t>CY 32,42,98</t>
         </is>
       </c>
       <c r="B66" t="n">
@@ -2605,850 +2898,94 @@
         <v>222</v>
       </c>
       <c r="D66" t="n">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="E66" t="n">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="F66" t="n">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="G66" t="n">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="H66" t="n">
-        <v>80</v>
+        <v>64</v>
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>November 2024</t>
-        </is>
-      </c>
+          <t>November 2025</t>
+        </is>
+      </c>
+      <c r="J66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="inlineStr">
         <is>
-          <t>BY 32,42,88</t>
+          <t>CZ 33,43,99</t>
         </is>
       </c>
       <c r="B67" t="n">
         <v>300</v>
       </c>
       <c r="C67" t="n">
-        <v>222</v>
+        <v>230</v>
       </c>
       <c r="D67" t="n">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="E67" t="n">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="F67" t="n">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="G67" t="n">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="H67" t="n">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>November 2024</t>
-        </is>
-      </c>
+          <t>November 2025</t>
+        </is>
+      </c>
+      <c r="J67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="inlineStr">
         <is>
-          <t>BZ 33,43,89</t>
+          <t>WC 32,42,95</t>
         </is>
       </c>
       <c r="B68" t="n">
         <v>300</v>
       </c>
       <c r="C68" t="n">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="D68" t="n">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="E68" t="n">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="F68" t="n">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="G68" t="n">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="H68" t="n">
-        <v>80</v>
+        <v>64</v>
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>November 2024</t>
-        </is>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" s="1" t="inlineStr">
-        <is>
-          <t>CX 31,41,97</t>
-        </is>
-      </c>
-      <c r="B69" t="n">
-        <v>300</v>
-      </c>
-      <c r="C69" t="n">
-        <v>225</v>
-      </c>
-      <c r="D69" t="n">
-        <v>191</v>
-      </c>
-      <c r="E69" t="n">
-        <v>157</v>
-      </c>
-      <c r="F69" t="n">
-        <v>129</v>
-      </c>
-      <c r="G69" t="n">
-        <v>101</v>
-      </c>
-      <c r="H69" t="n">
-        <v>74</v>
-      </c>
-      <c r="I69" t="inlineStr">
-        <is>
-          <t>November 2024</t>
-        </is>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" s="1" t="inlineStr">
-        <is>
-          <t>CY 32,42,98</t>
-        </is>
-      </c>
-      <c r="B70" t="n">
-        <v>300</v>
-      </c>
-      <c r="C70" t="n">
-        <v>222</v>
-      </c>
-      <c r="D70" t="n">
-        <v>190</v>
-      </c>
-      <c r="E70" t="n">
-        <v>158</v>
-      </c>
-      <c r="F70" t="n">
-        <v>130</v>
-      </c>
-      <c r="G70" t="n">
-        <v>102</v>
-      </c>
-      <c r="H70" t="n">
-        <v>75</v>
-      </c>
-      <c r="I70" t="inlineStr">
-        <is>
-          <t>November 2024</t>
-        </is>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" s="1" t="inlineStr">
-        <is>
-          <t>CZ 33,43,99</t>
-        </is>
-      </c>
-      <c r="B71" t="n">
-        <v>300</v>
-      </c>
-      <c r="C71" t="n">
-        <v>225</v>
-      </c>
-      <c r="D71" t="n">
-        <v>191</v>
-      </c>
-      <c r="E71" t="n">
-        <v>157</v>
-      </c>
-      <c r="F71" t="n">
-        <v>129</v>
-      </c>
-      <c r="G71" t="n">
-        <v>101</v>
-      </c>
-      <c r="H71" t="n">
-        <v>74</v>
-      </c>
-      <c r="I71" t="inlineStr">
-        <is>
-          <t>November 2024</t>
-        </is>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" s="1" t="inlineStr">
-        <is>
-          <t>SX 11,21</t>
-        </is>
-      </c>
-      <c r="B72" t="n">
-        <v>150</v>
-      </c>
-      <c r="C72" t="n">
-        <v>0</v>
-      </c>
-      <c r="D72" t="n">
-        <v>92</v>
-      </c>
-      <c r="E72" t="n">
-        <v>77</v>
-      </c>
-      <c r="F72" t="n">
-        <v>61</v>
-      </c>
-      <c r="G72" t="n">
-        <v>46</v>
-      </c>
-      <c r="H72" t="n">
-        <v>31</v>
-      </c>
-      <c r="I72" t="inlineStr">
-        <is>
-          <t>November 2024</t>
-        </is>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" s="1" t="inlineStr">
-        <is>
-          <t>SY 12,22</t>
-        </is>
-      </c>
-      <c r="B73" t="n">
-        <v>150</v>
-      </c>
-      <c r="C73" t="n">
-        <v>0</v>
-      </c>
-      <c r="D73" t="n">
-        <v>86</v>
-      </c>
-      <c r="E73" t="n">
-        <v>71</v>
-      </c>
-      <c r="F73" t="n">
-        <v>56</v>
-      </c>
-      <c r="G73" t="n">
-        <v>42</v>
-      </c>
-      <c r="H73" t="n">
-        <v>28</v>
-      </c>
-      <c r="I73" t="inlineStr">
-        <is>
-          <t>November 2024</t>
-        </is>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" s="1" t="inlineStr">
-        <is>
-          <t>SZ 13,23</t>
-        </is>
-      </c>
-      <c r="B74" t="n">
-        <v>150</v>
-      </c>
-      <c r="C74" t="n">
-        <v>0</v>
-      </c>
-      <c r="D74" t="n">
-        <v>93</v>
-      </c>
-      <c r="E74" t="n">
-        <v>77</v>
-      </c>
-      <c r="F74" t="n">
-        <v>63</v>
-      </c>
-      <c r="G74" t="n">
-        <v>49</v>
-      </c>
-      <c r="H74" t="n">
-        <v>35</v>
-      </c>
-      <c r="I74" t="inlineStr">
-        <is>
-          <t>November 2024</t>
-        </is>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" s="1" t="inlineStr">
-        <is>
-          <t>W1 32,42,96</t>
-        </is>
-      </c>
-      <c r="B75" t="n">
-        <v>300</v>
-      </c>
-      <c r="C75" t="n">
-        <v>221</v>
-      </c>
-      <c r="D75" t="n">
-        <v>189</v>
-      </c>
-      <c r="E75" t="n">
-        <v>157</v>
-      </c>
-      <c r="F75" t="n">
-        <v>129</v>
-      </c>
-      <c r="G75" t="n">
-        <v>102</v>
-      </c>
-      <c r="H75" t="n">
-        <v>75</v>
-      </c>
-      <c r="I75" t="inlineStr">
-        <is>
-          <t>November 2024</t>
-        </is>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" s="1" t="inlineStr">
-        <is>
-          <t>WS 11,22</t>
-        </is>
-      </c>
-      <c r="B76" t="n">
-        <v>150</v>
-      </c>
-      <c r="C76" t="n">
-        <v>0</v>
-      </c>
-      <c r="D76" t="n">
-        <v>89</v>
-      </c>
-      <c r="E76" t="n">
-        <v>73</v>
-      </c>
-      <c r="F76" t="n">
-        <v>58</v>
-      </c>
-      <c r="G76" t="n">
-        <v>43</v>
-      </c>
-      <c r="H76" t="n">
-        <v>28</v>
-      </c>
-      <c r="I76" t="inlineStr">
-        <is>
-          <t>November 2024</t>
-        </is>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" s="1" t="inlineStr">
-        <is>
-          <t>AY 12,22,32,42</t>
-        </is>
-      </c>
-      <c r="B77" t="n">
-        <v>300</v>
-      </c>
-      <c r="C77" t="n">
-        <v>233</v>
-      </c>
-      <c r="D77" t="n">
-        <v>198</v>
-      </c>
-      <c r="E77" t="n">
-        <v>163</v>
-      </c>
-      <c r="F77" t="n">
-        <v>133</v>
-      </c>
-      <c r="G77" t="n">
-        <v>103</v>
-      </c>
-      <c r="H77" t="n">
-        <v>73</v>
-      </c>
-      <c r="I77" t="inlineStr">
-        <is>
           <t>November 2025</t>
         </is>
       </c>
-    </row>
-    <row r="78">
-      <c r="A78" s="1" t="inlineStr">
-        <is>
-          <t>AZ 13,23,33,43</t>
-        </is>
-      </c>
-      <c r="B78" t="n">
-        <v>300</v>
-      </c>
-      <c r="C78" t="n">
-        <v>233</v>
-      </c>
-      <c r="D78" t="n">
-        <v>198</v>
-      </c>
-      <c r="E78" t="n">
-        <v>163</v>
-      </c>
-      <c r="F78" t="n">
-        <v>133</v>
-      </c>
-      <c r="G78" t="n">
-        <v>103</v>
-      </c>
-      <c r="H78" t="n">
-        <v>73</v>
-      </c>
-      <c r="I78" t="inlineStr">
-        <is>
-          <t>November 2025</t>
-        </is>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" s="1" t="inlineStr">
-        <is>
-          <t>BQ 31,41,88</t>
-        </is>
-      </c>
-      <c r="B79" t="n">
-        <v>300</v>
-      </c>
-      <c r="C79" t="n">
-        <v>235</v>
-      </c>
-      <c r="D79" t="n">
-        <v>205</v>
-      </c>
-      <c r="E79" t="n">
-        <v>175</v>
-      </c>
-      <c r="F79" t="n">
-        <v>143</v>
-      </c>
-      <c r="G79" t="n">
-        <v>111</v>
-      </c>
-      <c r="H79" t="n">
-        <v>80</v>
-      </c>
-      <c r="I79" t="inlineStr">
-        <is>
-          <t>November 2025</t>
-        </is>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" s="1" t="inlineStr">
-        <is>
-          <t>BR 32,42,89</t>
-        </is>
-      </c>
-      <c r="B80" t="n">
-        <v>300</v>
-      </c>
-      <c r="C80" t="n">
-        <v>245</v>
-      </c>
-      <c r="D80" t="n">
-        <v>218</v>
-      </c>
-      <c r="E80" t="n">
-        <v>191</v>
-      </c>
-      <c r="F80" t="n">
-        <v>159</v>
-      </c>
-      <c r="G80" t="n">
-        <v>127</v>
-      </c>
-      <c r="H80" t="n">
-        <v>96</v>
-      </c>
-      <c r="I80" t="inlineStr">
-        <is>
-          <t>November 2025</t>
-        </is>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" s="1" t="inlineStr">
-        <is>
-          <t>BX 31,41,87</t>
-        </is>
-      </c>
-      <c r="B81" t="n">
-        <v>300</v>
-      </c>
-      <c r="C81" t="n">
-        <v>235</v>
-      </c>
-      <c r="D81" t="n">
-        <v>204</v>
-      </c>
-      <c r="E81" t="n">
-        <v>173</v>
-      </c>
-      <c r="F81" t="n">
-        <v>142</v>
-      </c>
-      <c r="G81" t="n">
-        <v>111</v>
-      </c>
-      <c r="H81" t="n">
-        <v>80</v>
-      </c>
-      <c r="I81" t="inlineStr">
-        <is>
-          <t>November 2025</t>
-        </is>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" s="1" t="inlineStr">
-        <is>
-          <t>BY 32,42,88</t>
-        </is>
-      </c>
-      <c r="B82" t="n">
-        <v>300</v>
-      </c>
-      <c r="C82" t="n">
-        <v>233</v>
-      </c>
-      <c r="D82" t="n">
-        <v>203</v>
-      </c>
-      <c r="E82" t="n">
-        <v>173</v>
-      </c>
-      <c r="F82" t="n">
-        <v>141</v>
-      </c>
-      <c r="G82" t="n">
-        <v>109</v>
-      </c>
-      <c r="H82" t="n">
-        <v>77</v>
-      </c>
-      <c r="I82" t="inlineStr">
-        <is>
-          <t>November 2025</t>
-        </is>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" s="1" t="inlineStr">
-        <is>
-          <t>BZ 33,43,89</t>
-        </is>
-      </c>
-      <c r="B83" t="n">
-        <v>300</v>
-      </c>
-      <c r="C83" t="n">
-        <v>245</v>
-      </c>
-      <c r="D83" t="n">
-        <v>218</v>
-      </c>
-      <c r="E83" t="n">
-        <v>191</v>
-      </c>
-      <c r="F83" t="n">
-        <v>159</v>
-      </c>
-      <c r="G83" t="n">
-        <v>127</v>
-      </c>
-      <c r="H83" t="n">
-        <v>96</v>
-      </c>
-      <c r="I83" t="inlineStr">
-        <is>
-          <t>November 2025</t>
-        </is>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" s="1" t="inlineStr">
-        <is>
-          <t>CX 31,41,97</t>
-        </is>
-      </c>
-      <c r="B84" t="n">
-        <v>300</v>
-      </c>
-      <c r="C84" t="n">
-        <v>230</v>
-      </c>
-      <c r="D84" t="n">
-        <v>197</v>
-      </c>
-      <c r="E84" t="n">
-        <v>164</v>
-      </c>
-      <c r="F84" t="n">
-        <v>132</v>
-      </c>
-      <c r="G84" t="n">
-        <v>101</v>
-      </c>
-      <c r="H84" t="n">
-        <v>70</v>
-      </c>
-      <c r="I84" t="inlineStr">
-        <is>
-          <t>November 2025</t>
-        </is>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" s="1" t="inlineStr">
-        <is>
-          <t>CY 32,42,98</t>
-        </is>
-      </c>
-      <c r="B85" t="n">
-        <v>300</v>
-      </c>
-      <c r="C85" t="n">
-        <v>222</v>
-      </c>
-      <c r="D85" t="n">
-        <v>189</v>
-      </c>
-      <c r="E85" t="n">
-        <v>156</v>
-      </c>
-      <c r="F85" t="n">
-        <v>125</v>
-      </c>
-      <c r="G85" t="n">
-        <v>94</v>
-      </c>
-      <c r="H85" t="n">
-        <v>64</v>
-      </c>
-      <c r="I85" t="inlineStr">
-        <is>
-          <t>November 2025</t>
-        </is>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" s="1" t="inlineStr">
-        <is>
-          <t>CZ 33,43,99</t>
-        </is>
-      </c>
-      <c r="B86" t="n">
-        <v>300</v>
-      </c>
-      <c r="C86" t="n">
-        <v>230</v>
-      </c>
-      <c r="D86" t="n">
-        <v>196</v>
-      </c>
-      <c r="E86" t="n">
-        <v>162</v>
-      </c>
-      <c r="F86" t="n">
-        <v>131</v>
-      </c>
-      <c r="G86" t="n">
-        <v>101</v>
-      </c>
-      <c r="H86" t="n">
-        <v>71</v>
-      </c>
-      <c r="I86" t="inlineStr">
-        <is>
-          <t>November 2025</t>
-        </is>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" s="1" t="inlineStr">
-        <is>
-          <t>SX 11,21</t>
-        </is>
-      </c>
-      <c r="B87" t="n">
-        <v>150</v>
-      </c>
-      <c r="C87" t="n">
-        <v>0</v>
-      </c>
-      <c r="D87" t="n">
-        <v>95</v>
-      </c>
-      <c r="E87" t="n">
-        <v>78</v>
-      </c>
-      <c r="F87" t="n">
-        <v>62</v>
-      </c>
-      <c r="G87" t="n">
-        <v>47</v>
-      </c>
-      <c r="H87" t="n">
-        <v>32</v>
-      </c>
-      <c r="I87" t="inlineStr">
-        <is>
-          <t>November 2025</t>
-        </is>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" s="1" t="inlineStr">
-        <is>
-          <t>SY 12,22</t>
-        </is>
-      </c>
-      <c r="B88" t="n">
-        <v>150</v>
-      </c>
-      <c r="C88" t="n">
-        <v>0</v>
-      </c>
-      <c r="D88" t="n">
-        <v>95</v>
-      </c>
-      <c r="E88" t="n">
-        <v>78</v>
-      </c>
-      <c r="F88" t="n">
-        <v>64</v>
-      </c>
-      <c r="G88" t="n">
-        <v>50</v>
-      </c>
-      <c r="H88" t="n">
-        <v>37</v>
-      </c>
-      <c r="I88" t="inlineStr">
-        <is>
-          <t>November 2025</t>
-        </is>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" s="1" t="inlineStr">
-        <is>
-          <t>SZ 13,23</t>
-        </is>
-      </c>
-      <c r="B89" t="n">
-        <v>150</v>
-      </c>
-      <c r="C89" t="n">
-        <v>0</v>
-      </c>
-      <c r="D89" t="n">
-        <v>95</v>
-      </c>
-      <c r="E89" t="n">
-        <v>78</v>
-      </c>
-      <c r="F89" t="n">
-        <v>64</v>
-      </c>
-      <c r="G89" t="n">
-        <v>50</v>
-      </c>
-      <c r="H89" t="n">
-        <v>37</v>
-      </c>
-      <c r="I89" t="inlineStr">
-        <is>
-          <t>November 2025</t>
-        </is>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" s="1" t="inlineStr">
-        <is>
-          <t>WC 32,42,95</t>
-        </is>
-      </c>
-      <c r="B90" t="n">
-        <v>300</v>
-      </c>
-      <c r="C90" t="n">
-        <v>226</v>
-      </c>
-      <c r="D90" t="n">
-        <v>192</v>
-      </c>
-      <c r="E90" t="n">
-        <v>158</v>
-      </c>
-      <c r="F90" t="n">
-        <v>126</v>
-      </c>
-      <c r="G90" t="n">
-        <v>95</v>
-      </c>
-      <c r="H90" t="n">
-        <v>64</v>
-      </c>
-      <c r="I90" t="inlineStr">
-        <is>
-          <t>November 2025</t>
-        </is>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" s="1" t="inlineStr">
-        <is>
-          <t>WS 11,22</t>
-        </is>
-      </c>
-      <c r="B91" t="n">
-        <v>150</v>
-      </c>
-      <c r="C91" t="n">
-        <v>0</v>
-      </c>
-      <c r="D91" t="n">
-        <v>95</v>
-      </c>
-      <c r="E91" t="n">
-        <v>78</v>
-      </c>
-      <c r="F91" t="n">
-        <v>63</v>
-      </c>
-      <c r="G91" t="n">
-        <v>48</v>
-      </c>
-      <c r="H91" t="n">
-        <v>34</v>
-      </c>
-      <c r="I91" t="inlineStr">
-        <is>
-          <t>November 2025</t>
-        </is>
-      </c>
+      <c r="J68" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/thresholds/AL/computer-science/computer-science-thresholds.xlsx
+++ b/thresholds/AL/computer-science/computer-science-thresholds.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J68"/>
+  <dimension ref="A1:I90"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -479,11 +479,6 @@
           <t>date</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>subject</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -509,17 +504,14 @@
       <c r="G2" t="n">
         <v>107</v>
       </c>
-      <c r="H2" t="n">
-        <v>75</v>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
           <t>June 2023</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>computer-science</t>
         </is>
       </c>
     </row>
@@ -547,17 +539,14 @@
       <c r="G3" t="n">
         <v>107</v>
       </c>
-      <c r="H3" t="n">
-        <v>75</v>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
           <t>June 2023</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>computer-science</t>
         </is>
       </c>
     </row>
@@ -585,17 +574,14 @@
       <c r="G4" t="n">
         <v>107</v>
       </c>
-      <c r="H4" t="n">
-        <v>75</v>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
           <t>June 2023</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>computer-science</t>
         </is>
       </c>
     </row>
@@ -623,17 +609,14 @@
       <c r="G5" t="n">
         <v>108</v>
       </c>
-      <c r="H5" t="n">
-        <v>76</v>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>76</t>
+        </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
           <t>June 2023</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>computer-science</t>
         </is>
       </c>
     </row>
@@ -661,17 +644,14 @@
       <c r="G6" t="n">
         <v>107</v>
       </c>
-      <c r="H6" t="n">
-        <v>76</v>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>76</t>
+        </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
           <t>June 2023</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>computer-science</t>
         </is>
       </c>
     </row>
@@ -699,17 +679,14 @@
       <c r="G7" t="n">
         <v>108</v>
       </c>
-      <c r="H7" t="n">
-        <v>76</v>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>76</t>
+        </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
           <t>June 2023</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>computer-science</t>
         </is>
       </c>
     </row>
@@ -737,17 +714,14 @@
       <c r="G8" t="n">
         <v>106</v>
       </c>
-      <c r="H8" t="n">
-        <v>74</v>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>74</t>
+        </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
           <t>June 2023</t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>computer-science</t>
         </is>
       </c>
     </row>
@@ -775,17 +749,14 @@
       <c r="G9" t="n">
         <v>113</v>
       </c>
-      <c r="H9" t="n">
-        <v>81</v>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>81</t>
+        </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
           <t>June 2023</t>
-        </is>
-      </c>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>computer-science</t>
         </is>
       </c>
     </row>
@@ -813,17 +784,14 @@
       <c r="G10" t="n">
         <v>113</v>
       </c>
-      <c r="H10" t="n">
-        <v>81</v>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>81</t>
+        </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
           <t>June 2023</t>
-        </is>
-      </c>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>computer-science</t>
         </is>
       </c>
     </row>
@@ -851,1727 +819,1589 @@
       <c r="G11" t="n">
         <v>64</v>
       </c>
-      <c r="H11" t="n">
-        <v>48</v>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
           <t>June 2023</t>
-        </is>
-      </c>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>computer-science</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>WF 33,43,96</t>
+          <t>SX 11,21</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="C12" t="n">
-        <v>230</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>201</v>
+        <v>85</v>
       </c>
       <c r="E12" t="n">
-        <v>172</v>
+        <v>70</v>
       </c>
       <c r="F12" t="n">
-        <v>140</v>
+        <v>58</v>
       </c>
       <c r="G12" t="n">
-        <v>108</v>
-      </c>
-      <c r="H12" t="n">
-        <v>77</v>
+        <v>46</v>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
           <t>June 2023</t>
-        </is>
-      </c>
-      <c r="J12" t="inlineStr">
-        <is>
-          <t>computer-science</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>AX 11,21,31,41</t>
+          <t>SY 12,22</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="C13" t="n">
-        <v>222</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>191</v>
+        <v>85</v>
       </c>
       <c r="E13" t="n">
-        <v>160</v>
+        <v>70</v>
       </c>
       <c r="F13" t="n">
-        <v>130</v>
+        <v>58</v>
       </c>
       <c r="G13" t="n">
-        <v>100</v>
-      </c>
-      <c r="H13" t="n">
-        <v>71</v>
+        <v>46</v>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>June 2024</t>
-        </is>
-      </c>
-      <c r="J13" t="inlineStr">
-        <is>
-          <t>computer-science</t>
+          <t>June 2023</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>AY 12,22,32,42</t>
+          <t>SZ 13,23</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="C14" t="n">
-        <v>222</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>191</v>
+        <v>85</v>
       </c>
       <c r="E14" t="n">
-        <v>160</v>
+        <v>70</v>
       </c>
       <c r="F14" t="n">
-        <v>130</v>
+        <v>58</v>
       </c>
       <c r="G14" t="n">
-        <v>100</v>
-      </c>
-      <c r="H14" t="n">
-        <v>71</v>
+        <v>46</v>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>June 2024</t>
-        </is>
-      </c>
-      <c r="J14" t="inlineStr">
-        <is>
-          <t>computer-science</t>
+          <t>June 2023</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>AZ 13,23,33,43</t>
+          <t>WF 33,43,96</t>
         </is>
       </c>
       <c r="B15" t="n">
         <v>300</v>
       </c>
       <c r="C15" t="n">
-        <v>222</v>
+        <v>230</v>
       </c>
       <c r="D15" t="n">
-        <v>191</v>
+        <v>201</v>
       </c>
       <c r="E15" t="n">
-        <v>160</v>
+        <v>172</v>
       </c>
       <c r="F15" t="n">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="G15" t="n">
-        <v>100</v>
-      </c>
-      <c r="H15" t="n">
-        <v>71</v>
+        <v>108</v>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>77</t>
+        </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>June 2024</t>
-        </is>
-      </c>
-      <c r="J15" t="inlineStr">
-        <is>
-          <t>computer-science</t>
+          <t>June 2023</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>BX 31,41,87</t>
+          <t>AX 11,21,31,41</t>
         </is>
       </c>
       <c r="B16" t="n">
         <v>300</v>
       </c>
       <c r="C16" t="n">
-        <v>214</v>
+        <v>222</v>
       </c>
       <c r="D16" t="n">
-        <v>182</v>
+        <v>191</v>
       </c>
       <c r="E16" t="n">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="F16" t="n">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="G16" t="n">
-        <v>92</v>
-      </c>
-      <c r="H16" t="n">
-        <v>64</v>
+        <v>100</v>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>71</t>
+        </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
           <t>June 2024</t>
-        </is>
-      </c>
-      <c r="J16" t="inlineStr">
-        <is>
-          <t>computer-science</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>BY 32,42,88</t>
+          <t>AY 12,22,32,42</t>
         </is>
       </c>
       <c r="B17" t="n">
         <v>300</v>
       </c>
       <c r="C17" t="n">
-        <v>214</v>
+        <v>222</v>
       </c>
       <c r="D17" t="n">
-        <v>182</v>
+        <v>191</v>
       </c>
       <c r="E17" t="n">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="F17" t="n">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="G17" t="n">
-        <v>92</v>
-      </c>
-      <c r="H17" t="n">
-        <v>64</v>
+        <v>100</v>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>71</t>
+        </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
           <t>June 2024</t>
-        </is>
-      </c>
-      <c r="J17" t="inlineStr">
-        <is>
-          <t>computer-science</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>BZ 33,43,89</t>
+          <t>AZ 13,23,33,43</t>
         </is>
       </c>
       <c r="B18" t="n">
         <v>300</v>
       </c>
       <c r="C18" t="n">
-        <v>214</v>
+        <v>222</v>
       </c>
       <c r="D18" t="n">
-        <v>182</v>
+        <v>191</v>
       </c>
       <c r="E18" t="n">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="F18" t="n">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="G18" t="n">
-        <v>92</v>
-      </c>
-      <c r="H18" t="n">
-        <v>64</v>
+        <v>100</v>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>71</t>
+        </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
           <t>June 2024</t>
-        </is>
-      </c>
-      <c r="J18" t="inlineStr">
-        <is>
-          <t>computer-science</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>CT 32,42,97</t>
+          <t>BX 31,41,87</t>
         </is>
       </c>
       <c r="B19" t="n">
         <v>300</v>
       </c>
       <c r="C19" t="n">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="D19" t="n">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="E19" t="n">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="F19" t="n">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="G19" t="n">
-        <v>95</v>
-      </c>
-      <c r="H19" t="n">
-        <v>65</v>
+        <v>92</v>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>64</t>
+        </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
           <t>June 2024</t>
-        </is>
-      </c>
-      <c r="J19" t="inlineStr">
-        <is>
-          <t>computer-science</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>CU 33,43,98</t>
+          <t>BY 32,42,88</t>
         </is>
       </c>
       <c r="B20" t="n">
         <v>300</v>
       </c>
       <c r="C20" t="n">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="D20" t="n">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="E20" t="n">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="F20" t="n">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="G20" t="n">
-        <v>96</v>
-      </c>
-      <c r="H20" t="n">
-        <v>66</v>
+        <v>92</v>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>64</t>
+        </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
           <t>June 2024</t>
-        </is>
-      </c>
-      <c r="J20" t="inlineStr">
-        <is>
-          <t>computer-science</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>CY 32,42,98</t>
+          <t>BZ 33,43,89</t>
         </is>
       </c>
       <c r="B21" t="n">
         <v>300</v>
       </c>
       <c r="C21" t="n">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="D21" t="n">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="E21" t="n">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="F21" t="n">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="G21" t="n">
-        <v>96</v>
-      </c>
-      <c r="H21" t="n">
-        <v>66</v>
+        <v>92</v>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>64</t>
+        </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
           <t>June 2024</t>
-        </is>
-      </c>
-      <c r="J21" t="inlineStr">
-        <is>
-          <t>computer-science</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>AX 11,21,31,41</t>
+          <t>CT 32,42,97</t>
         </is>
       </c>
       <c r="B22" t="n">
         <v>300</v>
       </c>
       <c r="C22" t="n">
-        <v>228</v>
+        <v>218</v>
       </c>
       <c r="D22" t="n">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="E22" t="n">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="F22" t="n">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="G22" t="n">
-        <v>102</v>
-      </c>
-      <c r="H22" t="n">
-        <v>73</v>
+        <v>95</v>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>65</t>
+        </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>June 2025</t>
-        </is>
-      </c>
-      <c r="J22" t="inlineStr">
-        <is>
-          <t>computer-science</t>
+          <t>June 2024</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>AY 12,22,32,42</t>
+          <t>CU 33,43,98</t>
         </is>
       </c>
       <c r="B23" t="n">
         <v>300</v>
       </c>
       <c r="C23" t="n">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="D23" t="n">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="E23" t="n">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="F23" t="n">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="G23" t="n">
-        <v>104</v>
-      </c>
-      <c r="H23" t="n">
-        <v>73</v>
+        <v>96</v>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>June 2025</t>
-        </is>
-      </c>
-      <c r="J23" t="inlineStr">
-        <is>
-          <t>computer-science</t>
+          <t>June 2024</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>AZ 13,23,33,43</t>
+          <t>CY 32,42,98</t>
         </is>
       </c>
       <c r="B24" t="n">
         <v>300</v>
       </c>
       <c r="C24" t="n">
-        <v>240</v>
+        <v>222</v>
       </c>
       <c r="D24" t="n">
-        <v>211</v>
+        <v>190</v>
       </c>
       <c r="E24" t="n">
-        <v>182</v>
+        <v>158</v>
       </c>
       <c r="F24" t="n">
-        <v>152</v>
+        <v>127</v>
       </c>
       <c r="G24" t="n">
-        <v>122</v>
-      </c>
-      <c r="H24" t="n">
-        <v>92</v>
+        <v>96</v>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>June 2025</t>
-        </is>
-      </c>
-      <c r="J24" t="inlineStr">
-        <is>
-          <t>computer-science</t>
+          <t>June 2024</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>BX 31,41,87</t>
+          <t>SX 11,21</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="C25" t="n">
-        <v>224</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>190</v>
+        <v>94</v>
       </c>
       <c r="E25" t="n">
-        <v>156</v>
+        <v>80</v>
       </c>
       <c r="F25" t="n">
-        <v>128</v>
+        <v>67</v>
       </c>
       <c r="G25" t="n">
-        <v>100</v>
-      </c>
-      <c r="H25" t="n">
-        <v>73</v>
+        <v>54</v>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>June 2025</t>
-        </is>
-      </c>
-      <c r="J25" t="inlineStr">
-        <is>
-          <t>computer-science</t>
+          <t>June 2024</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>BY 32,42,88</t>
+          <t>SY 12,22</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="C26" t="n">
-        <v>224</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>191</v>
+        <v>94</v>
       </c>
       <c r="E26" t="n">
-        <v>158</v>
+        <v>80</v>
       </c>
       <c r="F26" t="n">
-        <v>129</v>
+        <v>67</v>
       </c>
       <c r="G26" t="n">
-        <v>101</v>
-      </c>
-      <c r="H26" t="n">
-        <v>73</v>
+        <v>54</v>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>June 2025</t>
-        </is>
-      </c>
-      <c r="J26" t="inlineStr">
-        <is>
-          <t>computer-science</t>
+          <t>June 2024</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>BZ 33,43,89</t>
+          <t>SZ 13,23</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="C27" t="n">
-        <v>224</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>190</v>
+        <v>94</v>
       </c>
       <c r="E27" t="n">
-        <v>156</v>
+        <v>80</v>
       </c>
       <c r="F27" t="n">
-        <v>128</v>
+        <v>67</v>
       </c>
       <c r="G27" t="n">
-        <v>100</v>
-      </c>
-      <c r="H27" t="n">
-        <v>73</v>
+        <v>54</v>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>June 2025</t>
-        </is>
-      </c>
-      <c r="J27" t="inlineStr">
-        <is>
-          <t>computer-science</t>
+          <t>June 2024</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>CS 31,41,99</t>
+          <t>AX 11,21,31,41</t>
         </is>
       </c>
       <c r="B28" t="n">
         <v>300</v>
       </c>
       <c r="C28" t="n">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="D28" t="n">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="E28" t="n">
-        <v>153</v>
+        <v>162</v>
       </c>
       <c r="F28" t="n">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="G28" t="n">
-        <v>95</v>
-      </c>
-      <c r="H28" t="n">
-        <v>67</v>
+        <v>102</v>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>73</t>
+        </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
           <t>June 2025</t>
-        </is>
-      </c>
-      <c r="J28" t="inlineStr">
-        <is>
-          <t>computer-science</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>CT 32,42,97</t>
+          <t>AY 12,22,32,42</t>
         </is>
       </c>
       <c r="B29" t="n">
         <v>300</v>
       </c>
       <c r="C29" t="n">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="D29" t="n">
-        <v>189</v>
+        <v>197</v>
       </c>
       <c r="E29" t="n">
-        <v>155</v>
+        <v>166</v>
       </c>
       <c r="F29" t="n">
-        <v>124</v>
+        <v>135</v>
       </c>
       <c r="G29" t="n">
-        <v>93</v>
-      </c>
-      <c r="H29" t="n">
-        <v>63</v>
+        <v>104</v>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>73</t>
+        </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
           <t>June 2025</t>
-        </is>
-      </c>
-      <c r="J29" t="inlineStr">
-        <is>
-          <t>computer-science</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>CU 33,43,98</t>
+          <t>AZ 13,23,33,43</t>
         </is>
       </c>
       <c r="B30" t="n">
         <v>300</v>
       </c>
       <c r="C30" t="n">
-        <v>217</v>
+        <v>240</v>
       </c>
       <c r="D30" t="n">
+        <v>211</v>
+      </c>
+      <c r="E30" t="n">
         <v>182</v>
       </c>
-      <c r="E30" t="n">
-        <v>147</v>
-      </c>
       <c r="F30" t="n">
-        <v>118</v>
+        <v>152</v>
       </c>
       <c r="G30" t="n">
-        <v>89</v>
-      </c>
-      <c r="H30" t="n">
-        <v>60</v>
+        <v>122</v>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>92</t>
+        </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
           <t>June 2025</t>
-        </is>
-      </c>
-      <c r="J30" t="inlineStr">
-        <is>
-          <t>computer-science</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>CX 31,41,97</t>
+          <t>BX 31,41,87</t>
         </is>
       </c>
       <c r="B31" t="n">
         <v>300</v>
       </c>
       <c r="C31" t="n">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="D31" t="n">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="E31" t="n">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="F31" t="n">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="G31" t="n">
-        <v>93</v>
-      </c>
-      <c r="H31" t="n">
-        <v>63</v>
+        <v>100</v>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>73</t>
+        </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
           <t>June 2025</t>
-        </is>
-      </c>
-      <c r="J31" t="inlineStr">
-        <is>
-          <t>computer-science</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>CY 32,42,98</t>
+          <t>BY 32,42,88</t>
         </is>
       </c>
       <c r="B32" t="n">
         <v>300</v>
       </c>
       <c r="C32" t="n">
-        <v>217</v>
+        <v>224</v>
       </c>
       <c r="D32" t="n">
-        <v>183</v>
+        <v>191</v>
       </c>
       <c r="E32" t="n">
-        <v>149</v>
+        <v>158</v>
       </c>
       <c r="F32" t="n">
-        <v>119</v>
+        <v>129</v>
       </c>
       <c r="G32" t="n">
-        <v>89</v>
-      </c>
-      <c r="H32" t="n">
-        <v>60</v>
+        <v>101</v>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>73</t>
+        </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
           <t>June 2025</t>
-        </is>
-      </c>
-      <c r="J32" t="inlineStr">
-        <is>
-          <t>computer-science</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>P2 50,60</t>
+          <t>BZ 33,43,89</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>150</v>
+        <v>300</v>
       </c>
       <c r="C33" t="n">
-        <v>126</v>
+        <v>224</v>
       </c>
       <c r="D33" t="n">
-        <v>108</v>
+        <v>190</v>
       </c>
       <c r="E33" t="n">
-        <v>90</v>
+        <v>156</v>
       </c>
       <c r="F33" t="n">
-        <v>72</v>
+        <v>128</v>
       </c>
       <c r="G33" t="n">
-        <v>54</v>
-      </c>
-      <c r="H33" t="n">
-        <v>36</v>
+        <v>100</v>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>73</t>
+        </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
           <t>June 2025</t>
-        </is>
-      </c>
-      <c r="J33" t="inlineStr">
-        <is>
-          <t>computer-science</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>AX 11,21,31,41</t>
+          <t>CS 31,41,99</t>
         </is>
       </c>
       <c r="B34" t="n">
         <v>300</v>
       </c>
       <c r="C34" t="n">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="D34" t="n">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="E34" t="n">
-        <v>163</v>
+        <v>153</v>
       </c>
       <c r="F34" t="n">
-        <v>133</v>
+        <v>124</v>
       </c>
       <c r="G34" t="n">
-        <v>104</v>
-      </c>
-      <c r="H34" t="n">
-        <v>75</v>
+        <v>95</v>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>67</t>
+        </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>November 2023</t>
-        </is>
-      </c>
-      <c r="J34" t="inlineStr">
-        <is>
-          <t>computer-science</t>
+          <t>June 2025</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>AY 12,22,32,42</t>
+          <t>CT 32,42,97</t>
         </is>
       </c>
       <c r="B35" t="n">
         <v>300</v>
       </c>
       <c r="C35" t="n">
-        <v>232</v>
+        <v>223</v>
       </c>
       <c r="D35" t="n">
-        <v>198</v>
+        <v>189</v>
       </c>
       <c r="E35" t="n">
-        <v>164</v>
+        <v>155</v>
       </c>
       <c r="F35" t="n">
-        <v>134</v>
+        <v>124</v>
       </c>
       <c r="G35" t="n">
-        <v>105</v>
-      </c>
-      <c r="H35" t="n">
-        <v>76</v>
+        <v>93</v>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>63</t>
+        </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>November 2023</t>
-        </is>
-      </c>
-      <c r="J35" t="inlineStr">
-        <is>
-          <t>computer-science</t>
+          <t>June 2025</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>AZ 13,23,33,43</t>
+          <t>CU 33,43,98</t>
         </is>
       </c>
       <c r="B36" t="n">
         <v>300</v>
       </c>
       <c r="C36" t="n">
-        <v>229</v>
+        <v>217</v>
       </c>
       <c r="D36" t="n">
-        <v>196</v>
+        <v>182</v>
       </c>
       <c r="E36" t="n">
-        <v>163</v>
+        <v>147</v>
       </c>
       <c r="F36" t="n">
-        <v>133</v>
+        <v>118</v>
       </c>
       <c r="G36" t="n">
-        <v>104</v>
-      </c>
-      <c r="H36" t="n">
-        <v>75</v>
+        <v>89</v>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>November 2023</t>
-        </is>
-      </c>
-      <c r="J36" t="inlineStr">
-        <is>
-          <t>computer-science</t>
+          <t>June 2025</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>BQ 31,41,88</t>
+          <t>CX 31,41,97</t>
         </is>
       </c>
       <c r="B37" t="n">
         <v>300</v>
       </c>
       <c r="C37" t="n">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D37" t="n">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="E37" t="n">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="F37" t="n">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="G37" t="n">
-        <v>101</v>
-      </c>
-      <c r="H37" t="n">
-        <v>74</v>
+        <v>93</v>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>63</t>
+        </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>November 2023</t>
-        </is>
-      </c>
-      <c r="J37" t="inlineStr">
-        <is>
-          <t>computer-science</t>
+          <t>June 2025</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>BR 32,42,89</t>
+          <t>CY 32,42,98</t>
         </is>
       </c>
       <c r="B38" t="n">
         <v>300</v>
       </c>
       <c r="C38" t="n">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="D38" t="n">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="E38" t="n">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="F38" t="n">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="G38" t="n">
-        <v>101</v>
-      </c>
-      <c r="H38" t="n">
-        <v>74</v>
+        <v>89</v>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>November 2023</t>
-        </is>
-      </c>
-      <c r="J38" t="inlineStr">
-        <is>
-          <t>computer-science</t>
+          <t>June 2025</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>BY 32,42,88</t>
+          <t>P2 50,60</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="C39" t="n">
-        <v>224</v>
+        <v>126</v>
       </c>
       <c r="D39" t="n">
-        <v>190</v>
+        <v>108</v>
       </c>
       <c r="E39" t="n">
-        <v>156</v>
+        <v>90</v>
       </c>
       <c r="F39" t="n">
-        <v>128</v>
+        <v>72</v>
       </c>
       <c r="G39" t="n">
-        <v>101</v>
-      </c>
-      <c r="H39" t="n">
-        <v>74</v>
+        <v>54</v>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>November 2023</t>
-        </is>
-      </c>
-      <c r="J39" t="inlineStr">
-        <is>
-          <t>computer-science</t>
+          <t>June 2025</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>BZ 33,43,89</t>
+          <t>SX 11,21</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="C40" t="n">
-        <v>225</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>191</v>
+        <v>99</v>
       </c>
       <c r="E40" t="n">
-        <v>157</v>
+        <v>86</v>
       </c>
       <c r="F40" t="n">
-        <v>129</v>
+        <v>71</v>
       </c>
       <c r="G40" t="n">
-        <v>101</v>
-      </c>
-      <c r="H40" t="n">
-        <v>74</v>
+        <v>56</v>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>November 2023</t>
-        </is>
-      </c>
-      <c r="J40" t="inlineStr">
-        <is>
-          <t>computer-science</t>
+          <t>June 2025</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>CX 31,41,97</t>
+          <t>SY 12,22</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="C41" t="n">
-        <v>223</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>190</v>
+        <v>100</v>
       </c>
       <c r="E41" t="n">
-        <v>157</v>
+        <v>88</v>
       </c>
       <c r="F41" t="n">
-        <v>129</v>
+        <v>72</v>
       </c>
       <c r="G41" t="n">
-        <v>101</v>
-      </c>
-      <c r="H41" t="n">
-        <v>73</v>
+        <v>56</v>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>November 2023</t>
-        </is>
-      </c>
-      <c r="J41" t="inlineStr">
-        <is>
-          <t>computer-science</t>
+          <t>June 2025</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>CY 32,42,98</t>
+          <t>SZ 13,23</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="C42" t="n">
-        <v>226</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>194</v>
+        <v>115</v>
       </c>
       <c r="E42" t="n">
-        <v>162</v>
+        <v>106</v>
       </c>
       <c r="F42" t="n">
-        <v>134</v>
+        <v>90</v>
       </c>
       <c r="G42" t="n">
-        <v>107</v>
-      </c>
-      <c r="H42" t="n">
-        <v>80</v>
+        <v>75</v>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>November 2023</t>
-        </is>
-      </c>
-      <c r="J42" t="inlineStr">
-        <is>
-          <t>computer-science</t>
+          <t>June 2025</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>CZ 33,43,99</t>
+          <t>AX 11,21,31,41</t>
         </is>
       </c>
       <c r="B43" t="n">
         <v>300</v>
       </c>
       <c r="C43" t="n">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="D43" t="n">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="E43" t="n">
         <v>163</v>
       </c>
       <c r="F43" t="n">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G43" t="n">
-        <v>106</v>
-      </c>
-      <c r="H43" t="n">
-        <v>78</v>
+        <v>104</v>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
           <t>November 2023</t>
-        </is>
-      </c>
-      <c r="J43" t="inlineStr">
-        <is>
-          <t>computer-science</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>W1 32,42,96</t>
+          <t>AY 12,22,32,42</t>
         </is>
       </c>
       <c r="B44" t="n">
         <v>300</v>
       </c>
       <c r="C44" t="n">
-        <v>223</v>
+        <v>232</v>
       </c>
       <c r="D44" t="n">
-        <v>190</v>
+        <v>198</v>
       </c>
       <c r="E44" t="n">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="F44" t="n">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="G44" t="n">
-        <v>103</v>
-      </c>
-      <c r="H44" t="n">
-        <v>76</v>
+        <v>105</v>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>76</t>
+        </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
           <t>November 2023</t>
-        </is>
-      </c>
-      <c r="J44" t="inlineStr">
-        <is>
-          <t>computer-science</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>WA 12,21,32,42</t>
+          <t>AZ 13,23,33,43</t>
         </is>
       </c>
       <c r="B45" t="n">
         <v>300</v>
       </c>
       <c r="C45" t="n">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D45" t="n">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E45" t="n">
         <v>163</v>
       </c>
       <c r="F45" t="n">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G45" t="n">
-        <v>105</v>
-      </c>
-      <c r="H45" t="n">
-        <v>76</v>
+        <v>104</v>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
           <t>November 2023</t>
-        </is>
-      </c>
-      <c r="J45" t="inlineStr">
-        <is>
-          <t>computer-science</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>AX 11,21,31,41</t>
+          <t>BQ 31,41,88</t>
         </is>
       </c>
       <c r="B46" t="n">
         <v>300</v>
       </c>
       <c r="C46" t="n">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="D46" t="n">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="E46" t="n">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F46" t="n">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="G46" t="n">
-        <v>99</v>
-      </c>
-      <c r="H46" t="n">
-        <v>70</v>
+        <v>101</v>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>74</t>
+        </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>November 2024</t>
-        </is>
-      </c>
-      <c r="J46" t="inlineStr">
-        <is>
-          <t>computer-science</t>
+          <t>November 2023</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>AY 12,22,32,42</t>
+          <t>BR 32,42,89</t>
         </is>
       </c>
       <c r="B47" t="n">
         <v>300</v>
       </c>
       <c r="C47" t="n">
-        <v>215</v>
+        <v>224</v>
       </c>
       <c r="D47" t="n">
-        <v>183</v>
+        <v>190</v>
       </c>
       <c r="E47" t="n">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="F47" t="n">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="G47" t="n">
-        <v>95</v>
-      </c>
-      <c r="H47" t="n">
-        <v>67</v>
+        <v>101</v>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>74</t>
+        </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>November 2024</t>
-        </is>
-      </c>
-      <c r="J47" t="inlineStr">
-        <is>
-          <t>computer-science</t>
+          <t>November 2023</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>AZ 13,23,33,43</t>
+          <t>BY 32,42,88</t>
         </is>
       </c>
       <c r="B48" t="n">
         <v>300</v>
       </c>
       <c r="C48" t="n">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="D48" t="n">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="E48" t="n">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="F48" t="n">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="G48" t="n">
-        <v>102</v>
-      </c>
-      <c r="H48" t="n">
-        <v>74</v>
+        <v>101</v>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>74</t>
+        </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>November 2024</t>
-        </is>
-      </c>
-      <c r="J48" t="inlineStr">
-        <is>
-          <t>computer-science</t>
+          <t>November 2023</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>BP 33,43,87</t>
+          <t>BZ 33,43,89</t>
         </is>
       </c>
       <c r="B49" t="n">
         <v>300</v>
       </c>
       <c r="C49" t="n">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="D49" t="n">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="E49" t="n">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="F49" t="n">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="G49" t="n">
-        <v>107</v>
-      </c>
-      <c r="H49" t="n">
-        <v>80</v>
+        <v>101</v>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>74</t>
+        </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>November 2024</t>
-        </is>
-      </c>
-      <c r="J49" t="inlineStr">
-        <is>
-          <t>computer-science</t>
+          <t>November 2023</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>BQ 31,41,88</t>
+          <t>CX 31,41,97</t>
         </is>
       </c>
       <c r="B50" t="n">
         <v>300</v>
       </c>
       <c r="C50" t="n">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="D50" t="n">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="E50" t="n">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="F50" t="n">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="G50" t="n">
-        <v>107</v>
-      </c>
-      <c r="H50" t="n">
-        <v>80</v>
+        <v>101</v>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>73</t>
+        </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>November 2024</t>
-        </is>
-      </c>
-      <c r="J50" t="inlineStr">
-        <is>
-          <t>computer-science</t>
+          <t>November 2023</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>BR 32,42,89</t>
+          <t>CY 32,42,98</t>
         </is>
       </c>
       <c r="B51" t="n">
         <v>300</v>
       </c>
       <c r="C51" t="n">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="D51" t="n">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="E51" t="n">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="F51" t="n">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="G51" t="n">
-        <v>106</v>
-      </c>
-      <c r="H51" t="n">
-        <v>80</v>
+        <v>107</v>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>November 2024</t>
-        </is>
-      </c>
-      <c r="J51" t="inlineStr">
-        <is>
-          <t>computer-science</t>
+          <t>November 2023</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
         <is>
-          <t>BY 32,42,88</t>
+          <t>CZ 33,43,99</t>
         </is>
       </c>
       <c r="B52" t="n">
         <v>300</v>
       </c>
       <c r="C52" t="n">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="D52" t="n">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="E52" t="n">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="F52" t="n">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="G52" t="n">
         <v>106</v>
       </c>
-      <c r="H52" t="n">
-        <v>80</v>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>November 2024</t>
-        </is>
-      </c>
-      <c r="J52" t="inlineStr">
-        <is>
-          <t>computer-science</t>
+          <t>November 2023</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
         <is>
-          <t>BZ 33,43,89</t>
+          <t>SW 12,21</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="C53" t="n">
-        <v>229</v>
+        <v>0</v>
       </c>
       <c r="D53" t="n">
-        <v>195</v>
+        <v>92</v>
       </c>
       <c r="E53" t="n">
-        <v>161</v>
+        <v>77</v>
       </c>
       <c r="F53" t="n">
-        <v>134</v>
+        <v>63</v>
       </c>
       <c r="G53" t="n">
-        <v>107</v>
-      </c>
-      <c r="H53" t="n">
-        <v>80</v>
+        <v>49</v>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>November 2024</t>
-        </is>
-      </c>
-      <c r="J53" t="inlineStr">
-        <is>
-          <t>computer-science</t>
+          <t>November 2023</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
         <is>
-          <t>CX 31,41,97</t>
+          <t>SX 11,21</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="C54" t="n">
-        <v>225</v>
+        <v>0</v>
       </c>
       <c r="D54" t="n">
-        <v>191</v>
+        <v>90</v>
       </c>
       <c r="E54" t="n">
-        <v>157</v>
+        <v>76</v>
       </c>
       <c r="F54" t="n">
-        <v>129</v>
+        <v>62</v>
       </c>
       <c r="G54" t="n">
-        <v>101</v>
-      </c>
-      <c r="H54" t="n">
-        <v>74</v>
+        <v>48</v>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>November 2024</t>
-        </is>
-      </c>
-      <c r="J54" t="inlineStr">
-        <is>
-          <t>computer-science</t>
+          <t>November 2023</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
         <is>
-          <t>CY 32,42,98</t>
+          <t>SY 12,22</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="C55" t="n">
-        <v>222</v>
+        <v>0</v>
       </c>
       <c r="D55" t="n">
-        <v>190</v>
+        <v>93</v>
       </c>
       <c r="E55" t="n">
-        <v>158</v>
+        <v>78</v>
       </c>
       <c r="F55" t="n">
-        <v>130</v>
+        <v>64</v>
       </c>
       <c r="G55" t="n">
-        <v>102</v>
-      </c>
-      <c r="H55" t="n">
-        <v>75</v>
+        <v>50</v>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>November 2024</t>
-        </is>
-      </c>
-      <c r="J55" t="inlineStr">
-        <is>
-          <t>computer-science</t>
+          <t>November 2023</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
         <is>
-          <t>CZ 33,43,99</t>
+          <t>SZ 13,23</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="C56" t="n">
-        <v>225</v>
+        <v>0</v>
       </c>
       <c r="D56" t="n">
-        <v>191</v>
+        <v>90</v>
       </c>
       <c r="E56" t="n">
-        <v>157</v>
+        <v>76</v>
       </c>
       <c r="F56" t="n">
-        <v>129</v>
+        <v>62</v>
       </c>
       <c r="G56" t="n">
-        <v>101</v>
-      </c>
-      <c r="H56" t="n">
-        <v>74</v>
+        <v>48</v>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>November 2024</t>
-        </is>
-      </c>
-      <c r="J56" t="inlineStr">
-        <is>
-          <t>computer-science</t>
+          <t>November 2023</t>
         </is>
       </c>
     </row>
@@ -2585,407 +2415,1185 @@
         <v>300</v>
       </c>
       <c r="C57" t="n">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="D57" t="n">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="E57" t="n">
         <v>157</v>
       </c>
       <c r="F57" t="n">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="G57" t="n">
-        <v>102</v>
-      </c>
-      <c r="H57" t="n">
-        <v>75</v>
+        <v>103</v>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>76</t>
+        </is>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>November 2024</t>
-        </is>
-      </c>
-      <c r="J57" t="inlineStr">
-        <is>
-          <t>computer-science</t>
+          <t>November 2023</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="inlineStr">
         <is>
-          <t>AY 12,22,32,42</t>
+          <t>WA 12,21,32,42</t>
         </is>
       </c>
       <c r="B58" t="n">
         <v>300</v>
       </c>
       <c r="C58" t="n">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="D58" t="n">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E58" t="n">
         <v>163</v>
       </c>
       <c r="F58" t="n">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="G58" t="n">
-        <v>103</v>
-      </c>
-      <c r="H58" t="n">
-        <v>73</v>
+        <v>105</v>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>76</t>
+        </is>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>November 2025</t>
-        </is>
-      </c>
-      <c r="J58" t="inlineStr"/>
+          <t>November 2023</t>
+        </is>
+      </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="inlineStr">
         <is>
-          <t>AZ 13,23,33,43</t>
+          <t>AX 11,21,31,41</t>
         </is>
       </c>
       <c r="B59" t="n">
         <v>300</v>
       </c>
       <c r="C59" t="n">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="D59" t="n">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="E59" t="n">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="F59" t="n">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="G59" t="n">
-        <v>103</v>
-      </c>
-      <c r="H59" t="n">
-        <v>73</v>
+        <v>99</v>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>70</t>
+        </is>
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>November 2025</t>
-        </is>
-      </c>
-      <c r="J59" t="inlineStr"/>
+          <t>November 2024</t>
+        </is>
+      </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="inlineStr">
         <is>
-          <t>BQ 31,41,88</t>
+          <t>AY 12,22,32,42</t>
         </is>
       </c>
       <c r="B60" t="n">
         <v>300</v>
       </c>
       <c r="C60" t="n">
-        <v>235</v>
+        <v>215</v>
       </c>
       <c r="D60" t="n">
-        <v>205</v>
+        <v>183</v>
       </c>
       <c r="E60" t="n">
-        <v>175</v>
+        <v>151</v>
       </c>
       <c r="F60" t="n">
-        <v>143</v>
+        <v>123</v>
       </c>
       <c r="G60" t="n">
-        <v>111</v>
-      </c>
-      <c r="H60" t="n">
-        <v>80</v>
+        <v>95</v>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>67</t>
+        </is>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>November 2025</t>
-        </is>
-      </c>
-      <c r="J60" t="inlineStr"/>
+          <t>November 2024</t>
+        </is>
+      </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="inlineStr">
         <is>
-          <t>BR 32,42,89</t>
+          <t>AZ 13,23,33,43</t>
         </is>
       </c>
       <c r="B61" t="n">
         <v>300</v>
       </c>
       <c r="C61" t="n">
-        <v>245</v>
+        <v>230</v>
       </c>
       <c r="D61" t="n">
-        <v>218</v>
+        <v>194</v>
       </c>
       <c r="E61" t="n">
-        <v>191</v>
+        <v>158</v>
       </c>
       <c r="F61" t="n">
-        <v>159</v>
+        <v>130</v>
       </c>
       <c r="G61" t="n">
-        <v>127</v>
-      </c>
-      <c r="H61" t="n">
-        <v>96</v>
+        <v>102</v>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>74</t>
+        </is>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>November 2025</t>
-        </is>
-      </c>
-      <c r="J61" t="inlineStr"/>
+          <t>November 2024</t>
+        </is>
+      </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="inlineStr">
         <is>
-          <t>BX 31,41,87</t>
+          <t>BP 33,43,87</t>
         </is>
       </c>
       <c r="B62" t="n">
         <v>300</v>
       </c>
       <c r="C62" t="n">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="D62" t="n">
-        <v>204</v>
+        <v>195</v>
       </c>
       <c r="E62" t="n">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="F62" t="n">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="G62" t="n">
-        <v>111</v>
-      </c>
-      <c r="H62" t="n">
-        <v>80</v>
+        <v>107</v>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>November 2025</t>
-        </is>
-      </c>
-      <c r="J62" t="inlineStr"/>
+          <t>November 2024</t>
+        </is>
+      </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="inlineStr">
         <is>
-          <t>BY 32,42,88</t>
+          <t>BQ 31,41,88</t>
         </is>
       </c>
       <c r="B63" t="n">
         <v>300</v>
       </c>
       <c r="C63" t="n">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="D63" t="n">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="E63" t="n">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="F63" t="n">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="G63" t="n">
-        <v>109</v>
-      </c>
-      <c r="H63" t="n">
-        <v>77</v>
+        <v>107</v>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>November 2025</t>
-        </is>
-      </c>
-      <c r="J63" t="inlineStr"/>
+          <t>November 2024</t>
+        </is>
+      </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="inlineStr">
         <is>
-          <t>BZ 33,43,89</t>
+          <t>BR 32,42,89</t>
         </is>
       </c>
       <c r="B64" t="n">
         <v>300</v>
       </c>
       <c r="C64" t="n">
-        <v>245</v>
+        <v>222</v>
       </c>
       <c r="D64" t="n">
-        <v>218</v>
+        <v>191</v>
       </c>
       <c r="E64" t="n">
-        <v>191</v>
+        <v>160</v>
       </c>
       <c r="F64" t="n">
-        <v>159</v>
+        <v>133</v>
       </c>
       <c r="G64" t="n">
-        <v>127</v>
-      </c>
-      <c r="H64" t="n">
-        <v>96</v>
+        <v>106</v>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>November 2025</t>
-        </is>
-      </c>
-      <c r="J64" t="inlineStr"/>
+          <t>November 2024</t>
+        </is>
+      </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="inlineStr">
         <is>
-          <t>CX 31,41,97</t>
+          <t>BY 32,42,88</t>
         </is>
       </c>
       <c r="B65" t="n">
         <v>300</v>
       </c>
       <c r="C65" t="n">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="D65" t="n">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="E65" t="n">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="F65" t="n">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="G65" t="n">
-        <v>101</v>
-      </c>
-      <c r="H65" t="n">
-        <v>70</v>
+        <v>106</v>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>November 2025</t>
-        </is>
-      </c>
-      <c r="J65" t="inlineStr"/>
+          <t>November 2024</t>
+        </is>
+      </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="inlineStr">
         <is>
-          <t>CY 32,42,98</t>
+          <t>BZ 33,43,89</t>
         </is>
       </c>
       <c r="B66" t="n">
         <v>300</v>
       </c>
       <c r="C66" t="n">
-        <v>222</v>
+        <v>229</v>
       </c>
       <c r="D66" t="n">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="E66" t="n">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="F66" t="n">
-        <v>125</v>
+        <v>134</v>
       </c>
       <c r="G66" t="n">
-        <v>94</v>
-      </c>
-      <c r="H66" t="n">
-        <v>64</v>
+        <v>107</v>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>November 2025</t>
-        </is>
-      </c>
-      <c r="J66" t="inlineStr"/>
+          <t>November 2024</t>
+        </is>
+      </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="inlineStr">
         <is>
-          <t>CZ 33,43,99</t>
+          <t>CX 31,41,97</t>
         </is>
       </c>
       <c r="B67" t="n">
         <v>300</v>
       </c>
       <c r="C67" t="n">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="D67" t="n">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="E67" t="n">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="F67" t="n">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="G67" t="n">
         <v>101</v>
       </c>
-      <c r="H67" t="n">
-        <v>71</v>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>74</t>
+        </is>
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>November 2025</t>
-        </is>
-      </c>
-      <c r="J67" t="inlineStr"/>
+          <t>November 2024</t>
+        </is>
+      </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="inlineStr">
         <is>
-          <t>WC 32,42,95</t>
+          <t>CY 32,42,98</t>
         </is>
       </c>
       <c r="B68" t="n">
         <v>300</v>
       </c>
       <c r="C68" t="n">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="D68" t="n">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="E68" t="n">
         <v>158</v>
       </c>
       <c r="F68" t="n">
+        <v>130</v>
+      </c>
+      <c r="G68" t="n">
+        <v>102</v>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>November 2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="inlineStr">
+        <is>
+          <t>CZ 33,43,99</t>
+        </is>
+      </c>
+      <c r="B69" t="n">
+        <v>300</v>
+      </c>
+      <c r="C69" t="n">
+        <v>225</v>
+      </c>
+      <c r="D69" t="n">
+        <v>191</v>
+      </c>
+      <c r="E69" t="n">
+        <v>157</v>
+      </c>
+      <c r="F69" t="n">
+        <v>129</v>
+      </c>
+      <c r="G69" t="n">
+        <v>101</v>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>74</t>
+        </is>
+      </c>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>November 2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="inlineStr">
+        <is>
+          <t>SX 11,21</t>
+        </is>
+      </c>
+      <c r="B70" t="n">
+        <v>150</v>
+      </c>
+      <c r="C70" t="n">
+        <v>0</v>
+      </c>
+      <c r="D70" t="n">
+        <v>92</v>
+      </c>
+      <c r="E70" t="n">
+        <v>77</v>
+      </c>
+      <c r="F70" t="n">
+        <v>61</v>
+      </c>
+      <c r="G70" t="n">
+        <v>46</v>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>November 2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="inlineStr">
+        <is>
+          <t>SY 12,22</t>
+        </is>
+      </c>
+      <c r="B71" t="n">
+        <v>150</v>
+      </c>
+      <c r="C71" t="n">
+        <v>0</v>
+      </c>
+      <c r="D71" t="n">
+        <v>86</v>
+      </c>
+      <c r="E71" t="n">
+        <v>71</v>
+      </c>
+      <c r="F71" t="n">
+        <v>56</v>
+      </c>
+      <c r="G71" t="n">
+        <v>42</v>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="I71" t="inlineStr">
+        <is>
+          <t>November 2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="inlineStr">
+        <is>
+          <t>SZ 13,23</t>
+        </is>
+      </c>
+      <c r="B72" t="n">
+        <v>150</v>
+      </c>
+      <c r="C72" t="n">
+        <v>0</v>
+      </c>
+      <c r="D72" t="n">
+        <v>93</v>
+      </c>
+      <c r="E72" t="n">
+        <v>77</v>
+      </c>
+      <c r="F72" t="n">
+        <v>63</v>
+      </c>
+      <c r="G72" t="n">
+        <v>49</v>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="I72" t="inlineStr">
+        <is>
+          <t>November 2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="inlineStr">
+        <is>
+          <t>W1 32,42,96</t>
+        </is>
+      </c>
+      <c r="B73" t="n">
+        <v>300</v>
+      </c>
+      <c r="C73" t="n">
+        <v>221</v>
+      </c>
+      <c r="D73" t="n">
+        <v>189</v>
+      </c>
+      <c r="E73" t="n">
+        <v>157</v>
+      </c>
+      <c r="F73" t="n">
+        <v>129</v>
+      </c>
+      <c r="G73" t="n">
+        <v>102</v>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+      <c r="I73" t="inlineStr">
+        <is>
+          <t>November 2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="inlineStr">
+        <is>
+          <t>WS 11,22</t>
+        </is>
+      </c>
+      <c r="B74" t="n">
+        <v>150</v>
+      </c>
+      <c r="C74" t="n">
+        <v>0</v>
+      </c>
+      <c r="D74" t="n">
+        <v>89</v>
+      </c>
+      <c r="E74" t="n">
+        <v>73</v>
+      </c>
+      <c r="F74" t="n">
+        <v>58</v>
+      </c>
+      <c r="G74" t="n">
+        <v>43</v>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="I74" t="inlineStr">
+        <is>
+          <t>November 2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="inlineStr">
+        <is>
+          <t>AX 11,21,31,41</t>
+        </is>
+      </c>
+      <c r="B75" t="n">
+        <v>300</v>
+      </c>
+      <c r="C75" t="n">
+        <v>235</v>
+      </c>
+      <c r="D75" t="n">
+        <v>200</v>
+      </c>
+      <c r="E75" t="n">
+        <v>165</v>
+      </c>
+      <c r="F75" t="n">
+        <v>133</v>
+      </c>
+      <c r="G75" t="n">
+        <v>102</v>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>71</t>
+        </is>
+      </c>
+      <c r="I75" t="inlineStr">
+        <is>
+          <t>November 2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="inlineStr">
+        <is>
+          <t>AY 12,22,32,42</t>
+        </is>
+      </c>
+      <c r="B76" t="n">
+        <v>300</v>
+      </c>
+      <c r="C76" t="n">
+        <v>233</v>
+      </c>
+      <c r="D76" t="n">
+        <v>198</v>
+      </c>
+      <c r="E76" t="n">
+        <v>163</v>
+      </c>
+      <c r="F76" t="n">
+        <v>133</v>
+      </c>
+      <c r="G76" t="n">
+        <v>103</v>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>73</t>
+        </is>
+      </c>
+      <c r="I76" t="inlineStr">
+        <is>
+          <t>November 2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="inlineStr">
+        <is>
+          <t>AZ 13,23,33,43</t>
+        </is>
+      </c>
+      <c r="B77" t="n">
+        <v>300</v>
+      </c>
+      <c r="C77" t="n">
+        <v>233</v>
+      </c>
+      <c r="D77" t="n">
+        <v>198</v>
+      </c>
+      <c r="E77" t="n">
+        <v>163</v>
+      </c>
+      <c r="F77" t="n">
+        <v>133</v>
+      </c>
+      <c r="G77" t="n">
+        <v>103</v>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>73</t>
+        </is>
+      </c>
+      <c r="I77" t="inlineStr">
+        <is>
+          <t>November 2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="inlineStr">
+        <is>
+          <t>BQ 31,41,88</t>
+        </is>
+      </c>
+      <c r="B78" t="n">
+        <v>300</v>
+      </c>
+      <c r="C78" t="n">
+        <v>235</v>
+      </c>
+      <c r="D78" t="n">
+        <v>205</v>
+      </c>
+      <c r="E78" t="n">
+        <v>175</v>
+      </c>
+      <c r="F78" t="n">
+        <v>143</v>
+      </c>
+      <c r="G78" t="n">
+        <v>111</v>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="I78" t="inlineStr">
+        <is>
+          <t>November 2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="inlineStr">
+        <is>
+          <t>BR 32,42,89</t>
+        </is>
+      </c>
+      <c r="B79" t="n">
+        <v>300</v>
+      </c>
+      <c r="C79" t="n">
+        <v>245</v>
+      </c>
+      <c r="D79" t="n">
+        <v>218</v>
+      </c>
+      <c r="E79" t="n">
+        <v>191</v>
+      </c>
+      <c r="F79" t="n">
+        <v>159</v>
+      </c>
+      <c r="G79" t="n">
+        <v>127</v>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I79" t="inlineStr">
+        <is>
+          <t>November 2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="inlineStr">
+        <is>
+          <t>BX 31,41,87</t>
+        </is>
+      </c>
+      <c r="B80" t="n">
+        <v>300</v>
+      </c>
+      <c r="C80" t="n">
+        <v>235</v>
+      </c>
+      <c r="D80" t="n">
+        <v>204</v>
+      </c>
+      <c r="E80" t="n">
+        <v>173</v>
+      </c>
+      <c r="F80" t="n">
+        <v>142</v>
+      </c>
+      <c r="G80" t="n">
+        <v>111</v>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="I80" t="inlineStr">
+        <is>
+          <t>November 2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="inlineStr">
+        <is>
+          <t>BY 32,42,88</t>
+        </is>
+      </c>
+      <c r="B81" t="n">
+        <v>300</v>
+      </c>
+      <c r="C81" t="n">
+        <v>233</v>
+      </c>
+      <c r="D81" t="n">
+        <v>203</v>
+      </c>
+      <c r="E81" t="n">
+        <v>173</v>
+      </c>
+      <c r="F81" t="n">
+        <v>141</v>
+      </c>
+      <c r="G81" t="n">
+        <v>109</v>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>77</t>
+        </is>
+      </c>
+      <c r="I81" t="inlineStr">
+        <is>
+          <t>November 2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="inlineStr">
+        <is>
+          <t>BZ 33,43,89</t>
+        </is>
+      </c>
+      <c r="B82" t="n">
+        <v>300</v>
+      </c>
+      <c r="C82" t="n">
+        <v>245</v>
+      </c>
+      <c r="D82" t="n">
+        <v>218</v>
+      </c>
+      <c r="E82" t="n">
+        <v>191</v>
+      </c>
+      <c r="F82" t="n">
+        <v>159</v>
+      </c>
+      <c r="G82" t="n">
+        <v>127</v>
+      </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I82" t="inlineStr">
+        <is>
+          <t>November 2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="inlineStr">
+        <is>
+          <t>CX 31,41,97</t>
+        </is>
+      </c>
+      <c r="B83" t="n">
+        <v>300</v>
+      </c>
+      <c r="C83" t="n">
+        <v>230</v>
+      </c>
+      <c r="D83" t="n">
+        <v>197</v>
+      </c>
+      <c r="E83" t="n">
+        <v>164</v>
+      </c>
+      <c r="F83" t="n">
+        <v>132</v>
+      </c>
+      <c r="G83" t="n">
+        <v>101</v>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>70</t>
+        </is>
+      </c>
+      <c r="I83" t="inlineStr">
+        <is>
+          <t>November 2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="inlineStr">
+        <is>
+          <t>CY 32,42,98</t>
+        </is>
+      </c>
+      <c r="B84" t="n">
+        <v>300</v>
+      </c>
+      <c r="C84" t="n">
+        <v>222</v>
+      </c>
+      <c r="D84" t="n">
+        <v>189</v>
+      </c>
+      <c r="E84" t="n">
+        <v>156</v>
+      </c>
+      <c r="F84" t="n">
+        <v>125</v>
+      </c>
+      <c r="G84" t="n">
+        <v>94</v>
+      </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>64</t>
+        </is>
+      </c>
+      <c r="I84" t="inlineStr">
+        <is>
+          <t>November 2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="inlineStr">
+        <is>
+          <t>CZ 33,43,99</t>
+        </is>
+      </c>
+      <c r="B85" t="n">
+        <v>300</v>
+      </c>
+      <c r="C85" t="n">
+        <v>230</v>
+      </c>
+      <c r="D85" t="n">
+        <v>196</v>
+      </c>
+      <c r="E85" t="n">
+        <v>162</v>
+      </c>
+      <c r="F85" t="n">
+        <v>131</v>
+      </c>
+      <c r="G85" t="n">
+        <v>101</v>
+      </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>71</t>
+        </is>
+      </c>
+      <c r="I85" t="inlineStr">
+        <is>
+          <t>November 2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="inlineStr">
+        <is>
+          <t>SX 11,21</t>
+        </is>
+      </c>
+      <c r="B86" t="n">
+        <v>150</v>
+      </c>
+      <c r="C86" t="n">
+        <v>0</v>
+      </c>
+      <c r="D86" t="n">
+        <v>95</v>
+      </c>
+      <c r="E86" t="n">
+        <v>78</v>
+      </c>
+      <c r="F86" t="n">
+        <v>62</v>
+      </c>
+      <c r="G86" t="n">
+        <v>47</v>
+      </c>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="I86" t="inlineStr">
+        <is>
+          <t>November 2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="inlineStr">
+        <is>
+          <t>SY 12,22</t>
+        </is>
+      </c>
+      <c r="B87" t="n">
+        <v>150</v>
+      </c>
+      <c r="C87" t="n">
+        <v>0</v>
+      </c>
+      <c r="D87" t="n">
+        <v>95</v>
+      </c>
+      <c r="E87" t="n">
+        <v>78</v>
+      </c>
+      <c r="F87" t="n">
+        <v>64</v>
+      </c>
+      <c r="G87" t="n">
+        <v>50</v>
+      </c>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="I87" t="inlineStr">
+        <is>
+          <t>November 2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="inlineStr">
+        <is>
+          <t>SZ 13,23</t>
+        </is>
+      </c>
+      <c r="B88" t="n">
+        <v>150</v>
+      </c>
+      <c r="C88" t="n">
+        <v>0</v>
+      </c>
+      <c r="D88" t="n">
+        <v>95</v>
+      </c>
+      <c r="E88" t="n">
+        <v>78</v>
+      </c>
+      <c r="F88" t="n">
+        <v>64</v>
+      </c>
+      <c r="G88" t="n">
+        <v>50</v>
+      </c>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="I88" t="inlineStr">
+        <is>
+          <t>November 2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="inlineStr">
+        <is>
+          <t>WC 32,42,95</t>
+        </is>
+      </c>
+      <c r="B89" t="n">
+        <v>300</v>
+      </c>
+      <c r="C89" t="n">
+        <v>226</v>
+      </c>
+      <c r="D89" t="n">
+        <v>192</v>
+      </c>
+      <c r="E89" t="n">
+        <v>158</v>
+      </c>
+      <c r="F89" t="n">
         <v>126</v>
       </c>
-      <c r="G68" t="n">
+      <c r="G89" t="n">
         <v>95</v>
       </c>
-      <c r="H68" t="n">
-        <v>64</v>
-      </c>
-      <c r="I68" t="inlineStr">
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>64</t>
+        </is>
+      </c>
+      <c r="I89" t="inlineStr">
         <is>
           <t>November 2025</t>
         </is>
       </c>
-      <c r="J68" t="inlineStr"/>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="inlineStr">
+        <is>
+          <t>WS 11,22</t>
+        </is>
+      </c>
+      <c r="B90" t="n">
+        <v>150</v>
+      </c>
+      <c r="C90" t="n">
+        <v>0</v>
+      </c>
+      <c r="D90" t="n">
+        <v>95</v>
+      </c>
+      <c r="E90" t="n">
+        <v>78</v>
+      </c>
+      <c r="F90" t="n">
+        <v>63</v>
+      </c>
+      <c r="G90" t="n">
+        <v>48</v>
+      </c>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="I90" t="inlineStr">
+        <is>
+          <t>November 2025</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/thresholds/AL/computer-science/computer-science-thresholds.xlsx
+++ b/thresholds/AL/computer-science/computer-science-thresholds.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I90"/>
+  <dimension ref="A1:I92"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -798,30 +798,30 @@
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>P3 60,80</t>
+          <t>P1 50</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>150</v>
+        <v>75</v>
       </c>
       <c r="C11" t="n">
-        <v>130</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>114</v>
+        <v>58</v>
       </c>
       <c r="E11" t="n">
-        <v>98</v>
+        <v>46</v>
       </c>
       <c r="F11" t="n">
-        <v>81</v>
+        <v>39</v>
       </c>
       <c r="G11" t="n">
-        <v>64</v>
+        <v>32</v>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>26</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
@@ -833,30 +833,30 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>SX 11,21</t>
+          <t>P3 60,80</t>
         </is>
       </c>
       <c r="B12" t="n">
         <v>150</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="D12" t="n">
-        <v>85</v>
+        <v>114</v>
       </c>
       <c r="E12" t="n">
-        <v>70</v>
+        <v>98</v>
       </c>
       <c r="F12" t="n">
-        <v>58</v>
+        <v>81</v>
       </c>
       <c r="G12" t="n">
-        <v>46</v>
+        <v>64</v>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>48</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
@@ -868,7 +868,7 @@
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>SY 12,22</t>
+          <t>SX 11,21</t>
         </is>
       </c>
       <c r="B13" t="n">
@@ -903,7 +903,7 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>SZ 13,23</t>
+          <t>SY 12,22</t>
         </is>
       </c>
       <c r="B14" t="n">
@@ -938,30 +938,30 @@
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>WF 33,43,96</t>
+          <t>SZ 13,23</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="C15" t="n">
-        <v>230</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>201</v>
+        <v>85</v>
       </c>
       <c r="E15" t="n">
-        <v>172</v>
+        <v>70</v>
       </c>
       <c r="F15" t="n">
-        <v>140</v>
+        <v>58</v>
       </c>
       <c r="G15" t="n">
-        <v>108</v>
+        <v>46</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>77</t>
+          <t>34</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
@@ -973,42 +973,42 @@
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>AX 11,21,31,41</t>
+          <t>WF 33,43,96</t>
         </is>
       </c>
       <c r="B16" t="n">
         <v>300</v>
       </c>
       <c r="C16" t="n">
-        <v>222</v>
+        <v>230</v>
       </c>
       <c r="D16" t="n">
-        <v>191</v>
+        <v>201</v>
       </c>
       <c r="E16" t="n">
-        <v>160</v>
+        <v>172</v>
       </c>
       <c r="F16" t="n">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="G16" t="n">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>71</t>
+          <t>77</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>June 2024</t>
+          <t>June 2023</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>AY 12,22,32,42</t>
+          <t>AX 11,21,31,41</t>
         </is>
       </c>
       <c r="B17" t="n">
@@ -1043,7 +1043,7 @@
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>AZ 13,23,33,43</t>
+          <t>AY 12,22,32,42</t>
         </is>
       </c>
       <c r="B18" t="n">
@@ -1078,30 +1078,30 @@
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>BX 31,41,87</t>
+          <t>AZ 13,23,33,43</t>
         </is>
       </c>
       <c r="B19" t="n">
         <v>300</v>
       </c>
       <c r="C19" t="n">
-        <v>214</v>
+        <v>222</v>
       </c>
       <c r="D19" t="n">
-        <v>182</v>
+        <v>191</v>
       </c>
       <c r="E19" t="n">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="F19" t="n">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="G19" t="n">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>64</t>
+          <t>71</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
@@ -1113,7 +1113,7 @@
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>BY 32,42,88</t>
+          <t>BX 31,41,87</t>
         </is>
       </c>
       <c r="B20" t="n">
@@ -1148,7 +1148,7 @@
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>BZ 33,43,89</t>
+          <t>BY 32,42,88</t>
         </is>
       </c>
       <c r="B21" t="n">
@@ -1183,30 +1183,30 @@
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>CT 32,42,97</t>
+          <t>BZ 33,43,89</t>
         </is>
       </c>
       <c r="B22" t="n">
         <v>300</v>
       </c>
       <c r="C22" t="n">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="D22" t="n">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="E22" t="n">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="F22" t="n">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="G22" t="n">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>65</t>
+          <t>64</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
@@ -1218,30 +1218,30 @@
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>CU 33,43,98</t>
+          <t>CT 32,42,97</t>
         </is>
       </c>
       <c r="B23" t="n">
         <v>300</v>
       </c>
       <c r="C23" t="n">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="D23" t="n">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="E23" t="n">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="F23" t="n">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="G23" t="n">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>66</t>
+          <t>65</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
@@ -1253,7 +1253,7 @@
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>CY 32,42,98</t>
+          <t>CU 33,43,98</t>
         </is>
       </c>
       <c r="B24" t="n">
@@ -1288,30 +1288,30 @@
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>SX 11,21</t>
+          <t>CY 32,42,98</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>150</v>
+        <v>300</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>222</v>
       </c>
       <c r="D25" t="n">
-        <v>94</v>
+        <v>190</v>
       </c>
       <c r="E25" t="n">
-        <v>80</v>
+        <v>158</v>
       </c>
       <c r="F25" t="n">
-        <v>67</v>
+        <v>127</v>
       </c>
       <c r="G25" t="n">
-        <v>54</v>
+        <v>96</v>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>66</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
@@ -1323,7 +1323,7 @@
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>SY 12,22</t>
+          <t>SX 11,21</t>
         </is>
       </c>
       <c r="B26" t="n">
@@ -1358,7 +1358,7 @@
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>SZ 13,23</t>
+          <t>SY 12,22</t>
         </is>
       </c>
       <c r="B27" t="n">
@@ -1393,42 +1393,42 @@
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>AX 11,21,31,41</t>
+          <t>SZ 13,23</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="C28" t="n">
-        <v>228</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>195</v>
+        <v>94</v>
       </c>
       <c r="E28" t="n">
-        <v>162</v>
+        <v>80</v>
       </c>
       <c r="F28" t="n">
-        <v>132</v>
+        <v>67</v>
       </c>
       <c r="G28" t="n">
-        <v>102</v>
+        <v>54</v>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>73</t>
+          <t>41</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>June 2025</t>
+          <t>June 2024</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>AY 12,22,32,42</t>
+          <t>AX 11,21,31,41</t>
         </is>
       </c>
       <c r="B29" t="n">
@@ -1438,16 +1438,16 @@
         <v>228</v>
       </c>
       <c r="D29" t="n">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="E29" t="n">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="F29" t="n">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="G29" t="n">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="H29" t="inlineStr">
         <is>
@@ -1463,30 +1463,30 @@
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>AZ 13,23,33,43</t>
+          <t>AY 12,22,32,42</t>
         </is>
       </c>
       <c r="B30" t="n">
         <v>300</v>
       </c>
       <c r="C30" t="n">
-        <v>240</v>
+        <v>228</v>
       </c>
       <c r="D30" t="n">
-        <v>211</v>
+        <v>197</v>
       </c>
       <c r="E30" t="n">
-        <v>182</v>
+        <v>166</v>
       </c>
       <c r="F30" t="n">
-        <v>152</v>
+        <v>135</v>
       </c>
       <c r="G30" t="n">
-        <v>122</v>
+        <v>104</v>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>92</t>
+          <t>73</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
@@ -1498,30 +1498,30 @@
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>BX 31,41,87</t>
+          <t>AZ 13,23,33,43</t>
         </is>
       </c>
       <c r="B31" t="n">
         <v>300</v>
       </c>
       <c r="C31" t="n">
-        <v>224</v>
+        <v>240</v>
       </c>
       <c r="D31" t="n">
-        <v>190</v>
+        <v>211</v>
       </c>
       <c r="E31" t="n">
-        <v>156</v>
+        <v>182</v>
       </c>
       <c r="F31" t="n">
-        <v>128</v>
+        <v>152</v>
       </c>
       <c r="G31" t="n">
-        <v>100</v>
+        <v>122</v>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>73</t>
+          <t>92</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
@@ -1533,7 +1533,7 @@
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>BY 32,42,88</t>
+          <t>BX 31,41,87</t>
         </is>
       </c>
       <c r="B32" t="n">
@@ -1543,16 +1543,16 @@
         <v>224</v>
       </c>
       <c r="D32" t="n">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E32" t="n">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="F32" t="n">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G32" t="n">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H32" t="inlineStr">
         <is>
@@ -1568,7 +1568,7 @@
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>BZ 33,43,89</t>
+          <t>BY 32,42,88</t>
         </is>
       </c>
       <c r="B33" t="n">
@@ -1578,16 +1578,16 @@
         <v>224</v>
       </c>
       <c r="D33" t="n">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E33" t="n">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="F33" t="n">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="G33" t="n">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="H33" t="inlineStr">
         <is>
@@ -1603,30 +1603,30 @@
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>CS 31,41,99</t>
+          <t>BZ 33,43,89</t>
         </is>
       </c>
       <c r="B34" t="n">
         <v>300</v>
       </c>
       <c r="C34" t="n">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D34" t="n">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="E34" t="n">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="F34" t="n">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="G34" t="n">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>67</t>
+          <t>73</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
@@ -1638,30 +1638,30 @@
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>CT 32,42,97</t>
+          <t>CS 31,41,99</t>
         </is>
       </c>
       <c r="B35" t="n">
         <v>300</v>
       </c>
       <c r="C35" t="n">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="D35" t="n">
         <v>189</v>
       </c>
       <c r="E35" t="n">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F35" t="n">
         <v>124</v>
       </c>
       <c r="G35" t="n">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>63</t>
+          <t>67</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
@@ -1673,30 +1673,30 @@
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>CU 33,43,98</t>
+          <t>CT 32,42,97</t>
         </is>
       </c>
       <c r="B36" t="n">
         <v>300</v>
       </c>
       <c r="C36" t="n">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="D36" t="n">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="E36" t="n">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="F36" t="n">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="G36" t="n">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>63</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
@@ -1708,30 +1708,30 @@
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>CX 31,41,97</t>
+          <t>CU 33,43,98</t>
         </is>
       </c>
       <c r="B37" t="n">
         <v>300</v>
       </c>
       <c r="C37" t="n">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="D37" t="n">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="E37" t="n">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="F37" t="n">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="G37" t="n">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>63</t>
+          <t>60</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
@@ -1743,30 +1743,30 @@
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>CY 32,42,98</t>
+          <t>CX 31,41,97</t>
         </is>
       </c>
       <c r="B38" t="n">
         <v>300</v>
       </c>
       <c r="C38" t="n">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="D38" t="n">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="E38" t="n">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="F38" t="n">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="G38" t="n">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>63</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
@@ -1778,30 +1778,30 @@
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>P2 50,60</t>
+          <t>CY 32,42,98</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>150</v>
+        <v>300</v>
       </c>
       <c r="C39" t="n">
-        <v>126</v>
+        <v>217</v>
       </c>
       <c r="D39" t="n">
-        <v>108</v>
+        <v>183</v>
       </c>
       <c r="E39" t="n">
-        <v>90</v>
+        <v>149</v>
       </c>
       <c r="F39" t="n">
-        <v>72</v>
+        <v>119</v>
       </c>
       <c r="G39" t="n">
-        <v>54</v>
+        <v>89</v>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>60</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
@@ -1813,30 +1813,30 @@
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>SX 11,21</t>
+          <t>P2 50,60</t>
         </is>
       </c>
       <c r="B40" t="n">
         <v>150</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>126</v>
       </c>
       <c r="D40" t="n">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="E40" t="n">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="F40" t="n">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G40" t="n">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>36</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
@@ -1848,7 +1848,7 @@
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>SY 12,22</t>
+          <t>SX 11,21</t>
         </is>
       </c>
       <c r="B41" t="n">
@@ -1858,13 +1858,13 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E41" t="n">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F41" t="n">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G41" t="n">
         <v>56</v>
@@ -1883,7 +1883,7 @@
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>SZ 13,23</t>
+          <t>SY 12,22</t>
         </is>
       </c>
       <c r="B42" t="n">
@@ -1893,20 +1893,20 @@
         <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>115</v>
+        <v>100</v>
       </c>
       <c r="E42" t="n">
-        <v>106</v>
+        <v>88</v>
       </c>
       <c r="F42" t="n">
-        <v>90</v>
+        <v>72</v>
       </c>
       <c r="G42" t="n">
-        <v>75</v>
+        <v>56</v>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>41</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
@@ -1918,65 +1918,65 @@
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>AX 11,21,31,41</t>
+          <t>SZ 13,23</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="C43" t="n">
-        <v>229</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>196</v>
+        <v>115</v>
       </c>
       <c r="E43" t="n">
-        <v>163</v>
+        <v>106</v>
       </c>
       <c r="F43" t="n">
-        <v>133</v>
+        <v>90</v>
       </c>
       <c r="G43" t="n">
-        <v>104</v>
+        <v>75</v>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>75</t>
+          <t>60</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>November 2023</t>
+          <t>June 2025</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>AY 12,22,32,42</t>
+          <t>AX 11,21,31,41</t>
         </is>
       </c>
       <c r="B44" t="n">
         <v>300</v>
       </c>
       <c r="C44" t="n">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="D44" t="n">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="E44" t="n">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F44" t="n">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G44" t="n">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>76</t>
+          <t>75</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
@@ -1988,30 +1988,30 @@
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>AZ 13,23,33,43</t>
+          <t>AY 12,22,32,42</t>
         </is>
       </c>
       <c r="B45" t="n">
         <v>300</v>
       </c>
       <c r="C45" t="n">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="D45" t="n">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="E45" t="n">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="F45" t="n">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="G45" t="n">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>75</t>
+          <t>76</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
@@ -2023,30 +2023,30 @@
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>BQ 31,41,88</t>
+          <t>AZ 13,23,33,43</t>
         </is>
       </c>
       <c r="B46" t="n">
         <v>300</v>
       </c>
       <c r="C46" t="n">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="D46" t="n">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="E46" t="n">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="F46" t="n">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="G46" t="n">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>74</t>
+          <t>75</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
@@ -2058,23 +2058,23 @@
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>BR 32,42,89</t>
+          <t>BQ 31,41,88</t>
         </is>
       </c>
       <c r="B47" t="n">
         <v>300</v>
       </c>
       <c r="C47" t="n">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D47" t="n">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E47" t="n">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="F47" t="n">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="G47" t="n">
         <v>101</v>
@@ -2093,7 +2093,7 @@
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>BY 32,42,88</t>
+          <t>BR 32,42,89</t>
         </is>
       </c>
       <c r="B48" t="n">
@@ -2128,23 +2128,23 @@
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>BZ 33,43,89</t>
+          <t>BY 32,42,88</t>
         </is>
       </c>
       <c r="B49" t="n">
         <v>300</v>
       </c>
       <c r="C49" t="n">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D49" t="n">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E49" t="n">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F49" t="n">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G49" t="n">
         <v>101</v>
@@ -2163,17 +2163,17 @@
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>CX 31,41,97</t>
+          <t>BZ 33,43,89</t>
         </is>
       </c>
       <c r="B50" t="n">
         <v>300</v>
       </c>
       <c r="C50" t="n">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="D50" t="n">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E50" t="n">
         <v>157</v>
@@ -2186,7 +2186,7 @@
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>73</t>
+          <t>74</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
@@ -2198,30 +2198,30 @@
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>CY 32,42,98</t>
+          <t>CX 31,41,97</t>
         </is>
       </c>
       <c r="B51" t="n">
         <v>300</v>
       </c>
       <c r="C51" t="n">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="D51" t="n">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="E51" t="n">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="F51" t="n">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="G51" t="n">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>73</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
@@ -2233,30 +2233,30 @@
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
         <is>
-          <t>CZ 33,43,99</t>
+          <t>CY 32,42,98</t>
         </is>
       </c>
       <c r="B52" t="n">
         <v>300</v>
       </c>
       <c r="C52" t="n">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D52" t="n">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E52" t="n">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F52" t="n">
         <v>134</v>
       </c>
       <c r="G52" t="n">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
@@ -2268,30 +2268,30 @@
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
         <is>
-          <t>SW 12,21</t>
+          <t>CZ 33,43,99</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>150</v>
+        <v>300</v>
       </c>
       <c r="C53" t="n">
-        <v>0</v>
+        <v>227</v>
       </c>
       <c r="D53" t="n">
-        <v>92</v>
+        <v>195</v>
       </c>
       <c r="E53" t="n">
-        <v>77</v>
+        <v>163</v>
       </c>
       <c r="F53" t="n">
-        <v>63</v>
+        <v>134</v>
       </c>
       <c r="G53" t="n">
-        <v>49</v>
+        <v>106</v>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>78</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
@@ -2303,30 +2303,30 @@
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
         <is>
-          <t>SX 11,21</t>
+          <t>P1 50</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>150</v>
+        <v>75</v>
       </c>
       <c r="C54" t="n">
         <v>0</v>
       </c>
       <c r="D54" t="n">
-        <v>90</v>
+        <v>58</v>
       </c>
       <c r="E54" t="n">
-        <v>76</v>
+        <v>46</v>
       </c>
       <c r="F54" t="n">
-        <v>62</v>
+        <v>39</v>
       </c>
       <c r="G54" t="n">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>26</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
@@ -2338,7 +2338,7 @@
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
         <is>
-          <t>SY 12,22</t>
+          <t>SW 12,21</t>
         </is>
       </c>
       <c r="B55" t="n">
@@ -2348,16 +2348,16 @@
         <v>0</v>
       </c>
       <c r="D55" t="n">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E55" t="n">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F55" t="n">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G55" t="n">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H55" t="inlineStr">
         <is>
@@ -2373,7 +2373,7 @@
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
         <is>
-          <t>SZ 13,23</t>
+          <t>SX 11,21</t>
         </is>
       </c>
       <c r="B56" t="n">
@@ -2408,30 +2408,30 @@
     <row r="57">
       <c r="A57" s="1" t="inlineStr">
         <is>
-          <t>W1 32,42,96</t>
+          <t>SY 12,22</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="C57" t="n">
-        <v>223</v>
+        <v>0</v>
       </c>
       <c r="D57" t="n">
-        <v>190</v>
+        <v>93</v>
       </c>
       <c r="E57" t="n">
-        <v>157</v>
+        <v>78</v>
       </c>
       <c r="F57" t="n">
-        <v>130</v>
+        <v>64</v>
       </c>
       <c r="G57" t="n">
-        <v>103</v>
+        <v>50</v>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>76</t>
+          <t>36</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
@@ -2443,30 +2443,30 @@
     <row r="58">
       <c r="A58" s="1" t="inlineStr">
         <is>
-          <t>WA 12,21,32,42</t>
+          <t>SZ 13,23</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="C58" t="n">
-        <v>231</v>
+        <v>0</v>
       </c>
       <c r="D58" t="n">
-        <v>197</v>
+        <v>90</v>
       </c>
       <c r="E58" t="n">
-        <v>163</v>
+        <v>76</v>
       </c>
       <c r="F58" t="n">
-        <v>134</v>
+        <v>62</v>
       </c>
       <c r="G58" t="n">
-        <v>105</v>
+        <v>48</v>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>76</t>
+          <t>35</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
@@ -2478,100 +2478,100 @@
     <row r="59">
       <c r="A59" s="1" t="inlineStr">
         <is>
-          <t>AX 11,21,31,41</t>
+          <t>W1 32,42,96</t>
         </is>
       </c>
       <c r="B59" t="n">
         <v>300</v>
       </c>
       <c r="C59" t="n">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="D59" t="n">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="E59" t="n">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F59" t="n">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="G59" t="n">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>70</t>
+          <t>76</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>November 2024</t>
+          <t>November 2023</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="inlineStr">
         <is>
-          <t>AY 12,22,32,42</t>
+          <t>WA 12,21,32,42</t>
         </is>
       </c>
       <c r="B60" t="n">
         <v>300</v>
       </c>
       <c r="C60" t="n">
-        <v>215</v>
+        <v>231</v>
       </c>
       <c r="D60" t="n">
-        <v>183</v>
+        <v>197</v>
       </c>
       <c r="E60" t="n">
-        <v>151</v>
+        <v>163</v>
       </c>
       <c r="F60" t="n">
-        <v>123</v>
+        <v>134</v>
       </c>
       <c r="G60" t="n">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>67</t>
+          <t>76</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>November 2024</t>
+          <t>November 2023</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="inlineStr">
         <is>
-          <t>AZ 13,23,33,43</t>
+          <t>AX 11,21,31,41</t>
         </is>
       </c>
       <c r="B61" t="n">
         <v>300</v>
       </c>
       <c r="C61" t="n">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D61" t="n">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E61" t="n">
         <v>158</v>
       </c>
       <c r="F61" t="n">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="G61" t="n">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>74</t>
+          <t>70</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
@@ -2583,30 +2583,30 @@
     <row r="62">
       <c r="A62" s="1" t="inlineStr">
         <is>
-          <t>BP 33,43,87</t>
+          <t>AY 12,22,32,42</t>
         </is>
       </c>
       <c r="B62" t="n">
         <v>300</v>
       </c>
       <c r="C62" t="n">
-        <v>229</v>
+        <v>215</v>
       </c>
       <c r="D62" t="n">
-        <v>195</v>
+        <v>183</v>
       </c>
       <c r="E62" t="n">
-        <v>161</v>
+        <v>151</v>
       </c>
       <c r="F62" t="n">
-        <v>134</v>
+        <v>123</v>
       </c>
       <c r="G62" t="n">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>67</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
@@ -2618,30 +2618,30 @@
     <row r="63">
       <c r="A63" s="1" t="inlineStr">
         <is>
-          <t>BQ 31,41,88</t>
+          <t>AZ 13,23,33,43</t>
         </is>
       </c>
       <c r="B63" t="n">
         <v>300</v>
       </c>
       <c r="C63" t="n">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D63" t="n">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E63" t="n">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="F63" t="n">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="G63" t="n">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>74</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
@@ -2653,26 +2653,26 @@
     <row r="64">
       <c r="A64" s="1" t="inlineStr">
         <is>
-          <t>BR 32,42,89</t>
+          <t>BP 33,43,87</t>
         </is>
       </c>
       <c r="B64" t="n">
         <v>300</v>
       </c>
       <c r="C64" t="n">
-        <v>222</v>
+        <v>229</v>
       </c>
       <c r="D64" t="n">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="E64" t="n">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="F64" t="n">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="G64" t="n">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="H64" t="inlineStr">
         <is>
@@ -2688,26 +2688,26 @@
     <row r="65">
       <c r="A65" s="1" t="inlineStr">
         <is>
-          <t>BY 32,42,88</t>
+          <t>BQ 31,41,88</t>
         </is>
       </c>
       <c r="B65" t="n">
         <v>300</v>
       </c>
       <c r="C65" t="n">
-        <v>222</v>
+        <v>229</v>
       </c>
       <c r="D65" t="n">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="E65" t="n">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="F65" t="n">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="G65" t="n">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="H65" t="inlineStr">
         <is>
@@ -2723,26 +2723,26 @@
     <row r="66">
       <c r="A66" s="1" t="inlineStr">
         <is>
-          <t>BZ 33,43,89</t>
+          <t>BR 32,42,89</t>
         </is>
       </c>
       <c r="B66" t="n">
         <v>300</v>
       </c>
       <c r="C66" t="n">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="D66" t="n">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="E66" t="n">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F66" t="n">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G66" t="n">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H66" t="inlineStr">
         <is>
@@ -2758,30 +2758,30 @@
     <row r="67">
       <c r="A67" s="1" t="inlineStr">
         <is>
-          <t>CX 31,41,97</t>
+          <t>BY 32,42,88</t>
         </is>
       </c>
       <c r="B67" t="n">
         <v>300</v>
       </c>
       <c r="C67" t="n">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="D67" t="n">
         <v>191</v>
       </c>
       <c r="E67" t="n">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="F67" t="n">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="G67" t="n">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>74</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
@@ -2793,30 +2793,30 @@
     <row r="68">
       <c r="A68" s="1" t="inlineStr">
         <is>
-          <t>CY 32,42,98</t>
+          <t>BZ 33,43,89</t>
         </is>
       </c>
       <c r="B68" t="n">
         <v>300</v>
       </c>
       <c r="C68" t="n">
-        <v>222</v>
+        <v>229</v>
       </c>
       <c r="D68" t="n">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="E68" t="n">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="F68" t="n">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="G68" t="n">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>75</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
@@ -2828,7 +2828,7 @@
     <row r="69">
       <c r="A69" s="1" t="inlineStr">
         <is>
-          <t>CZ 33,43,99</t>
+          <t>CX 31,41,97</t>
         </is>
       </c>
       <c r="B69" t="n">
@@ -2863,30 +2863,30 @@
     <row r="70">
       <c r="A70" s="1" t="inlineStr">
         <is>
-          <t>SX 11,21</t>
+          <t>CY 32,42,98</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>150</v>
+        <v>300</v>
       </c>
       <c r="C70" t="n">
-        <v>0</v>
+        <v>222</v>
       </c>
       <c r="D70" t="n">
-        <v>92</v>
+        <v>190</v>
       </c>
       <c r="E70" t="n">
-        <v>77</v>
+        <v>158</v>
       </c>
       <c r="F70" t="n">
-        <v>61</v>
+        <v>130</v>
       </c>
       <c r="G70" t="n">
-        <v>46</v>
+        <v>102</v>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>75</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
@@ -2898,30 +2898,30 @@
     <row r="71">
       <c r="A71" s="1" t="inlineStr">
         <is>
-          <t>SY 12,22</t>
+          <t>CZ 33,43,99</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>150</v>
+        <v>300</v>
       </c>
       <c r="C71" t="n">
-        <v>0</v>
+        <v>225</v>
       </c>
       <c r="D71" t="n">
-        <v>86</v>
+        <v>191</v>
       </c>
       <c r="E71" t="n">
-        <v>71</v>
+        <v>157</v>
       </c>
       <c r="F71" t="n">
-        <v>56</v>
+        <v>129</v>
       </c>
       <c r="G71" t="n">
-        <v>42</v>
+        <v>101</v>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>74</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
@@ -2933,7 +2933,7 @@
     <row r="72">
       <c r="A72" s="1" t="inlineStr">
         <is>
-          <t>SZ 13,23</t>
+          <t>SX 11,21</t>
         </is>
       </c>
       <c r="B72" t="n">
@@ -2943,20 +2943,20 @@
         <v>0</v>
       </c>
       <c r="D72" t="n">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E72" t="n">
         <v>77</v>
       </c>
       <c r="F72" t="n">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G72" t="n">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>31</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
@@ -2968,30 +2968,30 @@
     <row r="73">
       <c r="A73" s="1" t="inlineStr">
         <is>
-          <t>W1 32,42,96</t>
+          <t>SY 12,22</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="C73" t="n">
-        <v>221</v>
+        <v>0</v>
       </c>
       <c r="D73" t="n">
-        <v>189</v>
+        <v>86</v>
       </c>
       <c r="E73" t="n">
-        <v>157</v>
+        <v>71</v>
       </c>
       <c r="F73" t="n">
-        <v>129</v>
+        <v>56</v>
       </c>
       <c r="G73" t="n">
-        <v>102</v>
+        <v>42</v>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>75</t>
+          <t>28</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
@@ -3003,7 +3003,7 @@
     <row r="74">
       <c r="A74" s="1" t="inlineStr">
         <is>
-          <t>WS 11,22</t>
+          <t>SZ 13,23</t>
         </is>
       </c>
       <c r="B74" t="n">
@@ -3013,20 +3013,20 @@
         <v>0</v>
       </c>
       <c r="D74" t="n">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="E74" t="n">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="F74" t="n">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="G74" t="n">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>35</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
@@ -3038,100 +3038,100 @@
     <row r="75">
       <c r="A75" s="1" t="inlineStr">
         <is>
-          <t>AX 11,21,31,41</t>
+          <t>W1 32,42,96</t>
         </is>
       </c>
       <c r="B75" t="n">
         <v>300</v>
       </c>
       <c r="C75" t="n">
-        <v>235</v>
+        <v>221</v>
       </c>
       <c r="D75" t="n">
-        <v>200</v>
+        <v>189</v>
       </c>
       <c r="E75" t="n">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="F75" t="n">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="G75" t="n">
         <v>102</v>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>71</t>
+          <t>75</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>November 2025</t>
+          <t>November 2024</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="inlineStr">
         <is>
-          <t>AY 12,22,32,42</t>
+          <t>WS 11,22</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="C76" t="n">
-        <v>233</v>
+        <v>0</v>
       </c>
       <c r="D76" t="n">
-        <v>198</v>
+        <v>89</v>
       </c>
       <c r="E76" t="n">
-        <v>163</v>
+        <v>73</v>
       </c>
       <c r="F76" t="n">
-        <v>133</v>
+        <v>58</v>
       </c>
       <c r="G76" t="n">
-        <v>103</v>
+        <v>43</v>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>73</t>
+          <t>28</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>November 2025</t>
+          <t>November 2024</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="inlineStr">
         <is>
-          <t>AZ 13,23,33,43</t>
+          <t>AX 11,21,31,41</t>
         </is>
       </c>
       <c r="B77" t="n">
         <v>300</v>
       </c>
       <c r="C77" t="n">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="D77" t="n">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="E77" t="n">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="F77" t="n">
         <v>133</v>
       </c>
       <c r="G77" t="n">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>73</t>
+          <t>71</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
@@ -3143,30 +3143,30 @@
     <row r="78">
       <c r="A78" s="1" t="inlineStr">
         <is>
-          <t>BQ 31,41,88</t>
+          <t>AY 12,22,32,42</t>
         </is>
       </c>
       <c r="B78" t="n">
         <v>300</v>
       </c>
       <c r="C78" t="n">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D78" t="n">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="E78" t="n">
-        <v>175</v>
+        <v>163</v>
       </c>
       <c r="F78" t="n">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="G78" t="n">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>73</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
@@ -3178,30 +3178,30 @@
     <row r="79">
       <c r="A79" s="1" t="inlineStr">
         <is>
-          <t>BR 32,42,89</t>
+          <t>AZ 13,23,33,43</t>
         </is>
       </c>
       <c r="B79" t="n">
         <v>300</v>
       </c>
       <c r="C79" t="n">
-        <v>245</v>
+        <v>233</v>
       </c>
       <c r="D79" t="n">
-        <v>218</v>
+        <v>198</v>
       </c>
       <c r="E79" t="n">
-        <v>191</v>
+        <v>163</v>
       </c>
       <c r="F79" t="n">
-        <v>159</v>
+        <v>133</v>
       </c>
       <c r="G79" t="n">
-        <v>127</v>
+        <v>103</v>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>73</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
@@ -3213,7 +3213,7 @@
     <row r="80">
       <c r="A80" s="1" t="inlineStr">
         <is>
-          <t>BX 31,41,87</t>
+          <t>BQ 31,41,88</t>
         </is>
       </c>
       <c r="B80" t="n">
@@ -3223,13 +3223,13 @@
         <v>235</v>
       </c>
       <c r="D80" t="n">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="E80" t="n">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="F80" t="n">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="G80" t="n">
         <v>111</v>
@@ -3248,30 +3248,30 @@
     <row r="81">
       <c r="A81" s="1" t="inlineStr">
         <is>
-          <t>BY 32,42,88</t>
+          <t>BR 32,42,89</t>
         </is>
       </c>
       <c r="B81" t="n">
         <v>300</v>
       </c>
       <c r="C81" t="n">
-        <v>233</v>
+        <v>245</v>
       </c>
       <c r="D81" t="n">
-        <v>203</v>
+        <v>218</v>
       </c>
       <c r="E81" t="n">
-        <v>173</v>
+        <v>191</v>
       </c>
       <c r="F81" t="n">
-        <v>141</v>
+        <v>159</v>
       </c>
       <c r="G81" t="n">
-        <v>109</v>
+        <v>127</v>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>77</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
@@ -3283,30 +3283,30 @@
     <row r="82">
       <c r="A82" s="1" t="inlineStr">
         <is>
-          <t>BZ 33,43,89</t>
+          <t>BX 31,41,87</t>
         </is>
       </c>
       <c r="B82" t="n">
         <v>300</v>
       </c>
       <c r="C82" t="n">
-        <v>245</v>
+        <v>235</v>
       </c>
       <c r="D82" t="n">
-        <v>218</v>
+        <v>204</v>
       </c>
       <c r="E82" t="n">
-        <v>191</v>
+        <v>173</v>
       </c>
       <c r="F82" t="n">
-        <v>159</v>
+        <v>142</v>
       </c>
       <c r="G82" t="n">
-        <v>127</v>
+        <v>111</v>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
@@ -3318,30 +3318,30 @@
     <row r="83">
       <c r="A83" s="1" t="inlineStr">
         <is>
-          <t>CX 31,41,97</t>
+          <t>BY 32,42,88</t>
         </is>
       </c>
       <c r="B83" t="n">
         <v>300</v>
       </c>
       <c r="C83" t="n">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="D83" t="n">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="E83" t="n">
-        <v>164</v>
+        <v>173</v>
       </c>
       <c r="F83" t="n">
-        <v>132</v>
+        <v>141</v>
       </c>
       <c r="G83" t="n">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>70</t>
+          <t>77</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
@@ -3353,30 +3353,30 @@
     <row r="84">
       <c r="A84" s="1" t="inlineStr">
         <is>
-          <t>CY 32,42,98</t>
+          <t>BZ 33,43,89</t>
         </is>
       </c>
       <c r="B84" t="n">
         <v>300</v>
       </c>
       <c r="C84" t="n">
-        <v>222</v>
+        <v>245</v>
       </c>
       <c r="D84" t="n">
-        <v>189</v>
+        <v>218</v>
       </c>
       <c r="E84" t="n">
-        <v>156</v>
+        <v>191</v>
       </c>
       <c r="F84" t="n">
-        <v>125</v>
+        <v>159</v>
       </c>
       <c r="G84" t="n">
-        <v>94</v>
+        <v>127</v>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>64</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
@@ -3388,7 +3388,7 @@
     <row r="85">
       <c r="A85" s="1" t="inlineStr">
         <is>
-          <t>CZ 33,43,99</t>
+          <t>CX 31,41,97</t>
         </is>
       </c>
       <c r="B85" t="n">
@@ -3398,20 +3398,20 @@
         <v>230</v>
       </c>
       <c r="D85" t="n">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="E85" t="n">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="F85" t="n">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="G85" t="n">
         <v>101</v>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>71</t>
+          <t>70</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
@@ -3423,30 +3423,30 @@
     <row r="86">
       <c r="A86" s="1" t="inlineStr">
         <is>
-          <t>SX 11,21</t>
+          <t>CY 32,42,98</t>
         </is>
       </c>
       <c r="B86" t="n">
-        <v>150</v>
+        <v>300</v>
       </c>
       <c r="C86" t="n">
-        <v>0</v>
+        <v>222</v>
       </c>
       <c r="D86" t="n">
-        <v>95</v>
+        <v>189</v>
       </c>
       <c r="E86" t="n">
-        <v>78</v>
+        <v>156</v>
       </c>
       <c r="F86" t="n">
-        <v>62</v>
+        <v>125</v>
       </c>
       <c r="G86" t="n">
-        <v>47</v>
+        <v>94</v>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>64</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
@@ -3458,30 +3458,30 @@
     <row r="87">
       <c r="A87" s="1" t="inlineStr">
         <is>
-          <t>SY 12,22</t>
+          <t>CZ 33,43,99</t>
         </is>
       </c>
       <c r="B87" t="n">
-        <v>150</v>
+        <v>300</v>
       </c>
       <c r="C87" t="n">
-        <v>0</v>
+        <v>230</v>
       </c>
       <c r="D87" t="n">
-        <v>95</v>
+        <v>196</v>
       </c>
       <c r="E87" t="n">
-        <v>78</v>
+        <v>162</v>
       </c>
       <c r="F87" t="n">
-        <v>64</v>
+        <v>131</v>
       </c>
       <c r="G87" t="n">
-        <v>50</v>
+        <v>101</v>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>71</t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
@@ -3493,7 +3493,7 @@
     <row r="88">
       <c r="A88" s="1" t="inlineStr">
         <is>
-          <t>SZ 13,23</t>
+          <t>SX 11,21</t>
         </is>
       </c>
       <c r="B88" t="n">
@@ -3509,14 +3509,14 @@
         <v>78</v>
       </c>
       <c r="F88" t="n">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="G88" t="n">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>32</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
@@ -3528,30 +3528,30 @@
     <row r="89">
       <c r="A89" s="1" t="inlineStr">
         <is>
-          <t>WC 32,42,95</t>
+          <t>SY 12,22</t>
         </is>
       </c>
       <c r="B89" t="n">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="C89" t="n">
-        <v>226</v>
+        <v>0</v>
       </c>
       <c r="D89" t="n">
-        <v>192</v>
+        <v>95</v>
       </c>
       <c r="E89" t="n">
-        <v>158</v>
+        <v>78</v>
       </c>
       <c r="F89" t="n">
-        <v>126</v>
+        <v>64</v>
       </c>
       <c r="G89" t="n">
-        <v>95</v>
+        <v>50</v>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>64</t>
+          <t>37</t>
         </is>
       </c>
       <c r="I89" t="inlineStr">
@@ -3563,7 +3563,7 @@
     <row r="90">
       <c r="A90" s="1" t="inlineStr">
         <is>
-          <t>WS 11,22</t>
+          <t>SZ 13,23</t>
         </is>
       </c>
       <c r="B90" t="n">
@@ -3579,17 +3579,87 @@
         <v>78</v>
       </c>
       <c r="F90" t="n">
+        <v>64</v>
+      </c>
+      <c r="G90" t="n">
+        <v>50</v>
+      </c>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="I90" t="inlineStr">
+        <is>
+          <t>November 2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="inlineStr">
+        <is>
+          <t>WC 32,42,95</t>
+        </is>
+      </c>
+      <c r="B91" t="n">
+        <v>300</v>
+      </c>
+      <c r="C91" t="n">
+        <v>226</v>
+      </c>
+      <c r="D91" t="n">
+        <v>192</v>
+      </c>
+      <c r="E91" t="n">
+        <v>158</v>
+      </c>
+      <c r="F91" t="n">
+        <v>126</v>
+      </c>
+      <c r="G91" t="n">
+        <v>95</v>
+      </c>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t>64</t>
+        </is>
+      </c>
+      <c r="I91" t="inlineStr">
+        <is>
+          <t>November 2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="inlineStr">
+        <is>
+          <t>WS 11,22</t>
+        </is>
+      </c>
+      <c r="B92" t="n">
+        <v>150</v>
+      </c>
+      <c r="C92" t="n">
+        <v>0</v>
+      </c>
+      <c r="D92" t="n">
+        <v>95</v>
+      </c>
+      <c r="E92" t="n">
+        <v>78</v>
+      </c>
+      <c r="F92" t="n">
         <v>63</v>
       </c>
-      <c r="G90" t="n">
+      <c r="G92" t="n">
         <v>48</v>
       </c>
-      <c r="H90" t="inlineStr">
+      <c r="H92" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="I90" t="inlineStr">
+      <c r="I92" t="inlineStr">
         <is>
           <t>November 2025</t>
         </is>
